--- a/public/preprocessing/@FatahSM_.xlsx
+++ b/public/preprocessing/@FatahSM_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17144</v>
+        <v>27913</v>
       </c>
       <c r="C2" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt saksikan ngaji manifesto abi bersama ust muhsin labib di channel youtube ahlulbait indonesia tv pada hari rabu </t>
+          <t>rt ri sejauhmana peran agamakeberagamaan bagi masyarakat di tengah pandemi layanan keagamaan seperti apa yg diperlukan masyara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'saksikan', 'ngaji', 'manifesto', 'abi', 'bersama', 'ust', 'muhsin', 'labib', 'di', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'tv', 'pada', 'hari', 'rabu']</t>
+          <t>['rt', 'ri', 'sejauhmana', 'peran', 'agamakeberagamaan', 'bagi', 'masyarakat', 'di', 'tengah', 'pandemi', 'layanan', 'keagamaan', 'seperti', 'apa', 'yg', 'diperlukan', 'masyara']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ri', 'sejauhmana', 'peran', 'agamakeberagamaan', 'bagi', 'masyarakat', 'di', 'tengah', 'pandemi', 'layanan', 'keagamaan', 'seperti', 'apa', 'yang', 'diperlukan', 'masyara']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['saksikan', 'ngaji', 'manifesto', 'abi', 'ust', 'muhsin', 'labib', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'tv', 'rabu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['saksi', 'ngaji', 'manifesto', 'abi', 'ust', 'muhsin', 'labib', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'tv', 'rabu']</t>
+          <t>['ri', 'sejauhmana', 'peran', 'agamakeberagamaan', 'masyarakat', 'pandemi', 'layanan', 'keagamaan', 'masyara']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['ri', 'sejauhmana', 'peran', 'agamakeberagamaan', 'masyarakat', 'pandemi', 'layan', 'agama', 'masyara']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17145</v>
+        <v>27914</v>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt mengenang hari wafatnya kh jalaluddin rakhmat live dari haram imam ali ridha as di mashad saksikan melalui kanal youtube </t>
+          <t>rt azyumardi tks maarif sy merasa sangat tersanjung dengan pesan milad sy sy tetap setia mengikut jejak langkah buya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'mengenang', 'hari', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'live', 'dari', 'haram', 'imam', 'ali', 'ridha', 'as', 'di', 'mashad', 'saksikan', 'melalui', 'kanal', 'youtube']</t>
+          <t>['rt', 'azyumardi', 'tks', 'maarif', 'sy', 'merasa', 'sangat', 'tersanjung', 'dengan', 'pesan', 'milad', 'sy', 'sy', 'tetap', 'setia', 'mengikut', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'tks', 'maarif', 'saya', 'merasa', 'sangat', 'tersanjung', 'dengan', 'pesan', 'milad', 'saya', 'saya', 'tetap', 'setia', 'mengikuti', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['mengenang', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'live', 'haram', 'imam', 'ali', 'ridha', 'as', 'mashad', 'saksikan', 'kanal', 'youtube']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['kenang', 'wafat', 'kh', 'jalaluddin', 'rakhmat', 'live', 'haram', 'imam', 'ali', 'ridha', 'as', 'mashad', 'saksi', 'kanal', 'youtube']</t>
+          <t>['azyumardi', 'tks', 'maarif', 'tersanjung', 'pesan', 'milad', 'setia', 'mengikuti', 'jejak', 'langkah', 'buya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'tks', 'maarif', 'sanjung', 'pesan', 'milad', 'setia', 'ikut', 'jejak', 'langkah', 'buya']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17146</v>
+        <v>27915</v>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt lipi takziyah utk kang jalal kang jalal telah melaksanakan perannya dg mendakwahkan islam cinta serta dialog sunnisyiah tugas</t>
+          <t>rt menag menegaskan skb menteri soal seragam sekolah tidak dibuat secara sembrono</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'lipi', 'takziyah', 'utk', 'kang', 'jalal', 'kang', 'jalal', 'telah', 'melaksanakan', 'perannya', 'dg', 'mendakwahkan', 'islam', 'cinta', 'serta', 'dialog', 'sunnisyiah', 'tugas']</t>
+          <t>['rt', 'menag', 'menegaskan', 'skb', 'menteri', 'soal', 'seragam', 'sekolah', 'tidak', 'dibuat', 'secara', 'sembrono']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'menteri, agama', 'menegaskan', 'skb', 'menteri', 'soal', 'seragam', 'sekolah', 'tidak', 'dibuat', 'secara', 'sembrono']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['lipi', 'takziyah', 'kang', 'jalal', 'kang', 'jalal', 'melaksanakan', 'perannya', 'mendakwahkan', 'islam', 'cinta', 'dialog', 'sunnisyiah', 'tugas']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['lipi', 'takziyah', 'kang', 'jalal', 'kang', 'jalal', 'laksana', 'peran', 'dakwah', 'islam', 'cinta', 'dialog', 'sunnisyiah', 'tugas']</t>
+          <t>['menteri, agama', 'skb', 'menteri', 'seragam', 'sekolah', 'sembrono']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'skb', 'menteri', 'seragam', 'sekolah', 'sembrono']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17147</v>
+        <v>27916</v>
       </c>
       <c r="C5" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt polri kapolri menjadi keynote speaker pada acara dies natalis himpunan mahasiswa islam ke</t>
+          <t>rt saat ini memiliki santrisantriwati binaan aktif di pesantren di antaranya ada yang bercitacita mau</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'polri', 'kapolri', 'menjadi', 'keynote', 'speaker', 'pada', 'acara', 'dies', 'natalis', 'himpunan', 'mahasiswa', 'islam', 'ke']</t>
+          <t>['rt', 'saat', 'ini', 'memiliki', 'santrisantriwati', 'binaan', 'aktif', 'di', 'pesantren', 'di', 'antaranya', 'ada', 'yang', 'bercitacita', 'mau']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'saat', 'ini', 'memiliki', 'santrisantriwati', 'binaan', 'aktif', 'di', 'pesantren', 'di', 'antaranya', 'ada', 'yang', 'bercitacita', 'mau']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['polri', 'kapolri', 'keynote', 'speaker', 'acara', 'dies', 'natalis', 'himpunan', 'mahasiswa', 'islam']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['polri', 'kapolri', 'keynote', 'speaker', 'acara', 'dies', 'natalis', 'himpun', 'mahasiswa', 'islam']</t>
+          <t>['memiliki', 'santrisantriwati', 'binaan', 'aktif', 'pesantren', 'bercitacita']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['milik', 'santrisantriwati', 'bina', 'aktif', 'pesantren', 'bercitacita']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17148</v>
+        <v>27917</v>
       </c>
       <c r="C6" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt dengan kerendahan hati yg tulus saya ingin mengenang guru tercinta almarhum wal maghfur kh jalaluddin rahmat</t>
+          <t>rt alhamdulillah hari ini diberi taufik berziarah ke makam guru tercinta almarhum kh jalaluddin rahmat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'dengan', 'kerendahan', 'hati', 'yg', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>['rt', 'alhamdulillah', 'hari', 'ini', 'diberi', 'taufik', 'berziarah', 'ke', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'hari', 'ini', 'diberi', 'taufik', 'berziarah', 'ke', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kerendahan', 'hati', 'tulus', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['rendah', 'hati', 'tulus', 'kenang', 'guru', 'cinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>['alhamdulillah', 'taufik', 'berziarah', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'taufik', 'ziarah', 'makam', 'guru', 'cinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17149</v>
+        <v>27918</v>
       </c>
       <c r="C7" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt majelis taziyah bersama abi dan ijabi ustadz kh jalaluddin rakhmat amp ibu euis kartini rabu februari jam</t>
+          <t>selamat kepada alam semesta atas kelahiran sang putra kabah as imam ali bin abi thalib raihlah berkahnya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'majelis', 'taziyah', 'bersama', 'abi', 'dan', 'ijabi', 'ustadz', 'kh', 'jalaluddin', 'rakhmat', 'amp', 'ibu', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
+          <t>['selamat', 'kepada', 'alam', 'semesta', 'atas', 'kelahiran', 'sang', 'putra', 'kabah', 'as', 'imam', 'ali', 'bin', 'abi', 'thalib', 'raihlah', 'berkahnya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'kepada', 'alam', 'semesta', 'atas', 'kelahiran', 'sang', 'putra', 'kabah', 'as', 'imam', 'ali', 'bin', 'abi', 'thalib', 'raihlah', 'berkahnya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['majelis', 'taziyah', 'abi', 'ijabi', 'ustadz', 'kh', 'jalaluddin', 'rakhmat', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['majelis', 'taziyah', 'abi', 'ijab', 'ustadz', 'kh', 'jalaluddin', 'rakhmat', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
+          <t>['selamat', 'alam', 'semesta', 'kelahiran', 'sang', 'putra', 'kabah', 'as', 'imam', 'ali', 'bin', 'abi', 'thalib', 'raihlah', 'berkahnya']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['selamat', 'alam', 'semesta', 'lahir', 'sang', 'putra', 'kabah', 'as', 'imam', 'ali', 'bin', 'abi', 'thalib', 'raih', 'berkah']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17150</v>
+        <v>27919</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt saya sudah tidak ingat kapan persisnya tapi saya masih ingat detil kejadiannya di akhir sebelum genap berusia tahun</t>
+          <t xml:space="preserve">rt wahai ali terimalah cintaku yg sederhana ini yg apa adanya ini kau adalah suluhku dalam kegalauan dan kesenderian selamat </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berusia', 'tahun']</t>
+          <t>['rt', 'wahai', 'ali', 'terimalah', 'cintaku', 'yg', 'sederhana', 'ini', 'yg', 'apa', 'adanya', 'ini', 'kau', 'adalah', 'suluhku', 'dalam', 'kegalauan', 'dan', 'kesenderian', 'selamat']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'wahai', 'ali', 'terimalah', 'cintaku', 'yang', 'sederhana', 'ini', 'yang', 'apa', 'adanya', 'ini', 'kamu', 'adalah', 'suluhku', 'dalam', 'kegalauan', 'dan', 'kesenderian', 'selamat']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['persisnya', 'detil', 'kejadiannya', 'genap', 'berusia']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['persis', 'detil', 'jadi', 'genap', 'usia']</t>
+          <t>['ali', 'terimalah', 'cintaku', 'sederhana', 'suluhku', 'kegalauan', 'kesenderian', 'selamat']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['ali', 'terima', 'cinta', 'sederhana', 'suluh', 'galau', 'kesenderian', 'selamat']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17151</v>
+        <v>27920</v>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt beik selamat jalan kang jalal</t>
+          <t xml:space="preserve">rt saksikan ngaji manifesto abi bersama ust muhsin labib di channel youtube ahlulbait indonesia tv pada hari rabu </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
+          <t>['rt', 'saksikan', 'ngaji', 'manifesto', 'abi', 'bersama', 'ust', 'muhsin', 'labib', 'di', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'tv', 'pada', 'hari', 'rabu']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'saksikan', 'mengaji', 'manifesto', 'abi', 'bersama', 'ustaz', 'muhsin', 'labib', 'di', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'televisi', 'pada', 'hari', 'rabu']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
+          <t>['saksikan', 'mengaji', 'manifesto', 'abi', 'ustaz', 'muhsin', 'labib', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'televisi', 'rabu']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['saksi', 'aji', 'manifesto', 'abi', 'ustaz', 'muhsin', 'labib', 'channel', 'youtube', 'ahlulbait', 'indonesia', 'televisi', 'rabu']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17152</v>
+        <v>27921</v>
       </c>
       <c r="C10" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt dewan syura ahlulbait indonesia turut berduka cita atas wafatnya kh jalaluddin rakhmat ketua dewan syura ijabi senin</t>
+          <t xml:space="preserve">rt mengenang hari wafatnya kh jalaluddin rakhmat live dari haram imam ali ridha as di mashad saksikan melalui kanal youtube </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'dewan', 'syura', 'ahlulbait', 'indonesia', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijabi', 'senin']</t>
+          <t>['rt', 'mengenang', 'hari', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'live', 'dari', 'haram', 'imam', 'ali', 'ridha', 'as', 'di', 'mashad', 'saksikan', 'melalui', 'kanal', 'youtube']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'mengenang', 'hari', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'live', 'dari', 'haram', 'imam', 'ali', 'ridha', 'as', 'di', 'mashad', 'saksikan', 'melalui', 'kanal', 'youtube']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['dewan', 'syura', 'ahlulbait', 'indonesia', 'berduka', 'cita', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijabi', 'senin']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['dewan', 'syura', 'ahlulbait', 'indonesia', 'duka', 'cita', 'wafat', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijab', 'senin']</t>
+          <t>['mengenang', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'live', 'haram', 'imam', 'ali', 'ridha', 'as', 'mashad', 'saksikan', 'kanal', 'youtube']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['kenang', 'wafat', 'kh', 'jalaluddin', 'rakhmat', 'live', 'haram', 'imam', 'ali', 'ridha', 'as', 'mashad', 'saksi', 'kanal', 'youtube']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17153</v>
+        <v>27922</v>
       </c>
       <c r="C11" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt innaalillahiwainnaailaihirajiun lahu alfatihah amin</t>
+          <t>rt lipi takziyah utk kang jalal kang jalal telah melaksanakan perannya dg mendakwahkan islam cinta serta dialog sunnisyiah tugas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'innaalillahiwainnaailaihirajiun', 'lahu', 'alfatihah', 'amin']</t>
+          <t>['rt', 'lipi', 'takziyah', 'utk', 'kang', 'jalal', 'kang', 'jalal', 'telah', 'melaksanakan', 'perannya', 'dg', 'mendakwahkan', 'islam', 'cinta', 'serta', 'dialog', 'sunnisyiah', 'tugas']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'lembaga, ilmu, pengetahuan, indonesia', 'takziyah', 'untuk', 'kang', 'jalal', 'kang', 'jalal', 'telah', 'melaksanakan', 'perannya', 'dengan', 'mendakwahkan', 'islam', 'cinta', 'serta', 'dialog', 'sunnisyiah', 'tugas']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['innaalillahiwainnaailaihirajiun', 'lahu', 'alfatihah', 'amin']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['innaalillahiwainnaailaihirajiun', 'lahu', 'alfatihah', 'amin']</t>
+          <t>['lembaga, ilmu, pengetahuan, indonesia', 'takziyah', 'kang', 'jalal', 'kang', 'jalal', 'melaksanakan', 'perannya', 'mendakwahkan', 'islam', 'cinta', 'dialog', 'sunnisyiah', 'tugas']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['lembaga ilmu tahu indonesia', 'takziyah', 'kang', 'jalal', 'kang', 'jalal', 'laksana', 'peran', 'dakwah', 'islam', 'cinta', 'dialog', 'sunnisyiah', 'tugas']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17154</v>
+        <v>27923</v>
       </c>
       <c r="C12" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt online jalaluddin rakhmat pejalan spiritual itu meninggal dunia</t>
+          <t>rt polri kapolri menjadi keynote speaker pada acara dies natalis himpunan mahasiswa islam ke</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'jalaluddin', 'rakhmat', 'pejalan', 'spiritual', 'itu', 'meninggal', 'dunia']</t>
+          <t>['rt', 'polri', 'kapolri', 'menjadi', 'keynote', 'speaker', 'pada', 'acara', 'dies', 'natalis', 'himpunan', 'mahasiswa', 'islam', 'ke']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kepolisian, republik, indonesia', 'kepala, kepolisian, republik, indonesia', 'menjadi', 'keynote', 'speaker', 'pada', 'acara', 'dies', 'natalis', 'himpunan', 'mahasiswa', 'islam', 'ke']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['online', 'jalaluddin', 'rakhmat', 'pejalan', 'spiritual', 'meninggal', 'dunia']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['online', 'jalaluddin', 'rakhmat', 'pejal', 'spiritual', 'tinggal', 'dunia']</t>
+          <t>['kepolisian, republik, indonesia', 'kepala, kepolisian, republik, indonesia', 'keynote', 'speaker', 'acara', 'dies', 'natalis', 'himpunan', 'mahasiswa', 'islam']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'kepala polisi republik indonesia', 'keynote', 'speaker', 'acara', 'dies', 'natalis', 'himpun', 'mahasiswa', 'islam']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17155</v>
+        <v>27924</v>
       </c>
       <c r="C13" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt innalillahi wa inna ilaihi rajiun telah berpulang cendekiawan muslim kh jalaluddin rakhmat ke haribaan allah swt </t>
+          <t>rt dengan kerendahan hati yg tulus saya ingin mengenang guru tercinta almarhum wal maghfur kh jalaluddin rahmat</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'berpulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'ke', 'haribaan', 'allah', 'swt']</t>
+          <t>['rt', 'dengan', 'kerendahan', 'hati', 'yg', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'dengan', 'kerendahan', 'hati', 'yang', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wah', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berpulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'haribaan', 'allah', 'swt']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'pulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'haribaan', 'allah', 'swt']</t>
+          <t>['kerendahan', 'hati', 'tulus', 'mengenang', 'guru', 'tercinta', 'almarhum', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['rendah', 'hati', 'tulus', 'kenang', 'guru', 'cinta', 'almarhum', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17156</v>
+        <v>27925</v>
       </c>
       <c r="C14" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt gaya khas menulis kang jalal adalah memulai dengan cerita bahkan di buku teks seperti psikologi komunikasi dia lalukan itu</t>
+          <t>rt majelis taziyah bersama abi dan ijabi ustadz kh jalaluddin rakhmat amp ibu euis kartini rabu februari jam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lalukan', 'itu']</t>
+          <t>['rt', 'majelis', 'taziyah', 'bersama', 'abi', 'dan', 'ijabi', 'ustadz', 'kh', 'jalaluddin', 'rakhmat', 'amp', 'ibu', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'majelis', 'taziyah', 'bersama', 'abi', 'dan', 'ijabi', 'ustaz', 'kh', 'jalaluddin', 'rakhmat', 'amp', 'ibu', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lalukan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['gaya', 'khas', 'tulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lalu']</t>
+          <t>['majelis', 'taziyah', 'abi', 'ijabi', 'ustaz', 'kh', 'jalaluddin', 'rakhmat', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['majelis', 'taziyah', 'abi', 'ijab', 'ustaz', 'kh', 'jalaluddin', 'rakhmat', 'euis', 'kartini', 'rabu', 'februari', 'jam']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17157</v>
+        <v>27926</v>
       </c>
       <c r="C15" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt semoga allah melimpahkan rahmat dan maghfirah buat almarhum guru kita ini</t>
+          <t>rt saya sudah tidak ingat kapan persisnya tapi saya masih ingat detil kejadiannya di akhir sebelum genap berusia tahun</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
+          <t>['rt', 'saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berusia', 'tahun']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berusia', 'tahun']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'limpah', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+          <t>['persisnya', 'detil', 'kejadiannya', 'genap', 'berusia']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['persis', 'detil', 'jadi', 'genap', 'usia']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17158</v>
+        <v>27927</v>
       </c>
       <c r="C16" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt mujani alfatihah buat almarhum kang jalaluddin rahmat intelketual yang kami banyak ikuti pemikirannya terutama ketika mahsiswa</t>
+          <t>rt beik selamat jalan kang jalal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'alfatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'mahsiswa']</t>
+          <t>['rt', 'beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['mujani', 'alfatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikuti', 'pemikirannya', 'mahsiswa']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['mujani', 'alfatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikut', 'pikir', 'mahsiswa']</t>
+          <t>['beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['beik', 'selamat', 'jalan', 'kang', 'jalal']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17159</v>
+        <v>27928</v>
       </c>
       <c r="C17" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt epitaf untuk jalaluddin rakhmat cendekiawan muslim itu telah berpulang</t>
+          <t>rt dewan syura ahlulbait indonesia turut berduka cita atas wafatnya kh jalaluddin rakhmat ketua dewan syura ijabi senin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'epitaf', 'untuk', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'itu', 'telah', 'berpulang']</t>
+          <t>['rt', 'dewan', 'syura', 'ahlulbait', 'indonesia', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijabi', 'senin']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'dewan', 'syura', 'ahlulbait', 'indonesia', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijabi', 'senin']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['epitaf', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'berpulang']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['epitaf', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'pulang']</t>
+          <t>['dewan', 'syura', 'ahlulbait', 'indonesia', 'berduka', 'cita', 'wafatnya', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijabi', 'senin']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['dewan', 'syura', 'ahlulbait', 'indonesia', 'duka', 'cita', 'wafat', 'kh', 'jalaluddin', 'rakhmat', 'ketua', 'dewan', 'syura', 'ijab', 'senin']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17160</v>
+        <v>27929</v>
       </c>
       <c r="C18" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt baru mendapat kabar kang jalaluddin rakhmat berpulang saya hanya mengenalnya dari bukubuku yang beliau tulis hemat</t>
+          <t>rt innaalillahiwainnaailaihirajiun lahu alfatihah amin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'baru', 'mendapat', 'kabar', 'kang', 'jalaluddin', 'rakhmat', 'berpulang', 'saya', 'hanya', 'mengenalnya', 'dari', 'bukubuku', 'yang', 'beliau', 'tulis', 'hemat']</t>
+          <t>['rt', 'innaalillahiwainnaailaihirajiun', 'lahu', 'alfatihah', 'amin']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'innaalillahiwainnaailaihirajiun', 'lahu', 'al, fatihah', 'amin']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kabar', 'kang', 'jalaluddin', 'rakhmat', 'berpulang', 'mengenalnya', 'bukubuku', 'beliau', 'tulis', 'hemat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kabar', 'kang', 'jalaluddin', 'rakhmat', 'pulang', 'kenal', 'bukubuku', 'beliau', 'tulis', 'hemat']</t>
+          <t>['innaalillahiwainnaailaihirajiun', 'lahu', 'al, fatihah', 'amin']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['innaalillahiwainnaailaihirajiun', 'lahu', 'al fatihah', 'amin']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17161</v>
+        <v>27930</v>
       </c>
       <c r="C19" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya ustadz kh jalaluddin rakhmat </t>
+          <t>rt online jalaluddin rakhmat pejalan spiritual itu meninggal dunia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustadz', 'kh', 'jalaluddin', 'rakhmat']</t>
+          <t>['rt', 'online', 'jalaluddin', 'rakhmat', 'pejalan', 'spiritual', 'itu', 'meninggal', 'dunia']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'online', 'jalaluddin', 'rakhmat', 'pejalan', 'spiritual', 'itu', 'meninggal', 'dunia']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'ustadz', 'kh', 'jalaluddin', 'rakhmat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'ustadz', 'kh', 'jalaluddin', 'rakhmat']</t>
+          <t>['online', 'jalaluddin', 'rakhmat', 'pejalan', 'spiritual', 'meninggal', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['online', 'jalaluddin', 'rakhmat', 'pejal', 'spiritual', 'tinggal', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17162</v>
+        <v>27931</v>
       </c>
       <c r="C20" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt innalillahi wainnailaihi rojiun semoga almarhum kang jalal mendapat tempat di sisinya sejak aliyah saya sudah membaca</t>
+          <t xml:space="preserve">rt innalillahi wa inna ilaihi rajiun telah berpulang cendekiawan muslim kh jalaluddin rakhmat ke haribaan allah swt </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'innalillahi', 'wainnailaihi', 'rojiun', 'semoga', 'almarhum', 'kang', 'jalal', 'mendapat', 'tempat', 'di', 'sisinya', 'sejak', 'aliyah', 'saya', 'sudah', 'membaca']</t>
+          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'berpulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'ke', 'haribaan', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'berpulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'ke', 'haribaan', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'semoga', 'almarhum', 'kang', 'jalal', 'sisinya', 'aliyah', 'membaca']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'moga', 'almarhum', 'kang', 'jalal', 'sisi', 'aliyah', 'baca']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berpulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'haribaan', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'pulang', 'cendekiawan', 'muslim', 'kh', 'jalaluddin', 'rakhmat', 'haribaan', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17163</v>
+        <v>27932</v>
       </c>
       <c r="C21" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt ketua umum pimpinan pusat muhammadiyah haedar nashir turut berduka cita atas meninggalnya cendikiawan muslim jalaludin</t>
+          <t>rt gaya khas menulis kang jalal adalah memulai dengan cerita bahkan di buku teks seperti psikologi komunikasi dia lalukan itu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'ketua', 'umum', 'pimpinan', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'turut', 'berduka', 'cita', 'atas', 'meninggalnya', 'cendikiawan', 'muslim', 'jalaludin']</t>
+          <t>['rt', 'gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lalukan', 'itu']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lalukan', 'itu']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ketua', 'pimpinan', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'berduka', 'cita', 'meninggalnya', 'cendikiawan', 'muslim', 'jalaludin']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['ketua', 'pimpin', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'duka', 'cita', 'tinggal', 'cendikiawan', 'muslim', 'jalaludin']</t>
+          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lalukan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['gaya', 'khas', 'tulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lalu']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17164</v>
+        <v>27933</v>
       </c>
       <c r="C22" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt innalillahi wa inna ilaihi rajiun semoga amal ibadah kang jalal diterima di sisi allah swt</t>
+          <t>rt semoga allah melimpahkan rahmat dan maghfirah buat almarhum guru kita ini</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'amal', 'ibadah', 'kang', 'jalal', 'diterima', 'di', 'sisi', 'allah', 'swt']</t>
+          <t>['rt', 'semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'amal', 'ibadah', 'kang', 'jalal', 'diterima', 'sisi', 'allah', 'swt']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'moga', 'amal', 'ibadah', 'kang', 'jalal', 'terima', 'sisi', 'allah', 'swt']</t>
+          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'limpah', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17165</v>
+        <v>27934</v>
       </c>
       <c r="C23" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>al fatihah dan salawat utk almarhum tercinta</t>
+          <t>rt mujani alfatihah buat almarhum kang jalaluddin rahmat intelketual yang kami banyak ikuti pemikirannya terutama ketika mahsiswa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['al', 'fatihah', 'dan', 'salawat', 'utk', 'almarhum', 'tercinta']</t>
+          <t>['rt', 'mujani', 'alfatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'mahsiswa']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'mujani', 'al, fatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'mahsiswa']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['al', 'fatihah', 'salawat', 'almarhum', 'tercinta']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['al', 'fatihah', 'salawat', 'almarhum', 'cinta']</t>
+          <t>['mujani', 'al, fatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikuti', 'pemikirannya', 'mahsiswa']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['mujani', 'al fatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikut', 'pikir', 'mahsiswa']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17166</v>
+        <v>27935</v>
       </c>
       <c r="C24" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>selamat jalan ustadz</t>
+          <t>rt epitaf untuk jalaluddin rakhmat cendekiawan muslim itu telah berpulang</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'ustadz']</t>
+          <t>['rt', 'epitaf', 'untuk', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'itu', 'telah', 'berpulang']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'epitaf', 'untuk', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'itu', 'telah', 'berpulang']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'ustadz']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'ustadz']</t>
+          <t>['epitaf', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'berpulang']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['epitaf', 'jalaluddin', 'rakhmat', 'cendekiawan', 'muslim', 'pulang']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17167</v>
+        <v>27936</v>
       </c>
       <c r="C25" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt bagir sajian menarik dari ttg nderes kitab naqsy alfushush ringkasan fushush alhikam ibn arabi ayo daftar rama</t>
+          <t>rt baru mendapat kabar kang jalaluddin rakhmat berpulang saya hanya mengenalnya dari bukubuku yang beliau tulis hemat</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'sajian', 'menarik', 'dari', 'ttg', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkasan', 'fushush', 'alhikam', 'ibn', 'arabi', 'ayo', 'daftar', 'rama']</t>
+          <t>['rt', 'baru', 'mendapat', 'kabar', 'kang', 'jalaluddin', 'rakhmat', 'berpulang', 'saya', 'hanya', 'mengenalnya', 'dari', 'bukubuku', 'yang', 'beliau', 'tulis', 'hemat']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'baru', 'mendapat', 'kabar', 'kang', 'jalaluddin', 'rakhmat', 'berpulang', 'saya', 'hanya', 'mengenalnya', 'dari', 'bukubuku', 'yang', 'beliau', 'tulis', 'hemat']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bagir', 'sajian', 'menarik', 'ttg', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkasan', 'fushush', 'alhikam', 'ibn', 'arabi', 'ayo', 'daftar', 'rama']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bagir', 'saji', 'tarik', 'ttg', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkas', 'fushush', 'alhikam', 'ibn', 'arab', 'ayo', 'daftar', 'rama']</t>
+          <t>['kabar', 'kang', 'jalaluddin', 'rakhmat', 'berpulang', 'mengenalnya', 'bukubuku', 'beliau', 'tulis', 'hemat']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kabar', 'kang', 'jalaluddin', 'rakhmat', 'pulang', 'kenal', 'bukubuku', 'beliau', 'tulis', 'hemat']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17168</v>
+        <v>27937</v>
       </c>
       <c r="C26" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt this year old volunteered to be lowered into  pipe to save  year old boy unbelievable hero</t>
+          <t xml:space="preserve">rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya ustadz kh jalaluddin rakhmat </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'this', 'year', 'old', 'volunteered', 'to', 'be', 'lowered', 'into', 'pipe', 'to', 'save', 'year', 'old', 'boy', 'unbelievable', 'hero']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustadz', 'kh', 'jalaluddin', 'rakhmat']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustaz', 'kh', 'jalaluddin', 'rakhmat']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['this', 'year', 'old', 'volunteered', 'to', 'be', 'lowered', 'into', 'pipe', 'to', 'save', 'year', 'old', 'boy', 'unbelievable', 'hero']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['this', 'year', 'old', 'volunteered', 'to', 'be', 'lowered', 'into', 'pipe', 'to', 'save', 'year', 'old', 'boy', 'unbelievable', 'hero']</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'ustaz', 'kh', 'jalaluddin', 'rakhmat']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'ustaz', 'kh', 'jalaluddin', 'rakhmat']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17169</v>
+        <v>27938</v>
       </c>
       <c r="C27" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt disabilitas sahabat polantas polri presisi prediktif responbilitas transparasi berkeadilan</t>
+          <t>rt innalillahi wainnailaihi rojiun semoga almarhum kang jalal mendapat tempat di sisinya sejak aliyah saya sudah membaca</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'disabilitas', 'sahabat', 'polantas', 'polri', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'berkeadilan']</t>
+          <t>['rt', 'innalillahi', 'wainnailaihi', 'rojiun', 'semoga', 'almarhum', 'kang', 'jalal', 'mendapat', 'tempat', 'di', 'sisinya', 'sejak', 'aliyah', 'saya', 'sudah', 'membaca']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'innalillahi', 'wainnailaihi', 'rojiun', 'semoga', 'almarhum', 'kang', 'jalal', 'mendapat', 'tempat', 'di', 'sisinya', 'sejak', 'aliyah', 'saya', 'sudah', 'membaca']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['disabilitas', 'sahabat', 'polantas', 'polri', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'berkeadilan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['disabilitas', 'sahabat', 'polantas', 'polri', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'adil']</t>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'semoga', 'almarhum', 'kang', 'jalal', 'sisinya', 'aliyah', 'membaca']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'moga', 'almarhum', 'kang', 'jalal', 'sisi', 'aliyah', 'baca']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17170</v>
+        <v>27939</v>
       </c>
       <c r="C28" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt beik hawn dan huwn satu akar kata dua makna kontradiktif</t>
+          <t>rt ketua umum pimpinan pusat muhammadiyah haedar nashir turut berduka cita atas meninggalnya cendikiawan muslim jalaludin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'beik', 'hawn', 'dan', 'huwn', 'satu', 'akar', 'kata', 'dua', 'makna', 'kontradiktif']</t>
+          <t>['rt', 'ketua', 'umum', 'pimpinan', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'turut', 'berduka', 'cita', 'atas', 'meninggalnya', 'cendikiawan', 'muslim', 'jalaludin']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'ketua', 'umum', 'pimpinan', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'turut', 'berduka', 'cita', 'atas', 'meninggalnya', 'cendikiawan', 'muslim', 'jalaludin']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['beik', 'hawn', 'huwn', 'akar', 'makna', 'kontradiktif']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['beik', 'hawn', 'huwn', 'akar', 'makna', 'kontradiktif']</t>
+          <t>['ketua', 'pimpinan', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'berduka', 'cita', 'meninggalnya', 'cendikiawan', 'muslim', 'jalaludin']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ketua', 'pimpin', 'pusat', 'muhammadiyah', 'haedar', 'nashir', 'duka', 'cita', 'tinggal', 'cendikiawan', 'muslim', 'jalaludin']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17171</v>
+        <v>27940</v>
       </c>
       <c r="C29" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt hmi connection terbangun karena kader hmi berteman lebih dari saudara perkaderan tanpa putus di ribuan komisariat fakult</t>
+          <t>rt innalillahi wa inna ilaihi rajiun semoga amal ibadah kang jalal diterima di sisi allah swt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'hmi', 'connection', 'terbangun', 'karena', 'kader', 'hmi', 'berteman', 'lebih', 'dari', 'saudara', 'perkaderan', 'tanpa', 'putus', 'di', 'ribuan', 'komisariat', 'fakult']</t>
+          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'amal', 'ibadah', 'kang', 'jalal', 'diterima', 'di', 'sisi', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'amal', 'ibadah', 'kang', 'jalal', 'diterima', 'di', 'sisi', 'allah', 'subhanahu, wa, taala']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['hmi', 'connection', 'terbangun', 'kader', 'hmi', 'berteman', 'saudara', 'perkaderan', 'putus', 'ribuan', 'komisariat', 'fakult']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['hmi', 'connection', 'bangun', 'kader', 'hmi', 'teman', 'saudara', 'kader', 'putus', 'ribu', 'komisariat', 'fakult']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'semoga', 'amal', 'ibadah', 'kang', 'jalal', 'diterima', 'sisi', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'moga', 'amal', 'ibadah', 'kang', 'jalal', 'terima', 'sisi', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17172</v>
+        <v>27941</v>
       </c>
       <c r="C30" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt laksono menugal di kalimantan ngaseuk di sunda dan banten pertanian memang bukan hanya produksi ada kebudayaan di dalamnya</t>
+          <t>al fatihah dan salawat utk almarhum tercinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'laksono', 'menugal', 'di', 'kalimantan', 'ngaseuk', 'di', 'sunda', 'dan', 'banten', 'pertanian', 'memang', 'bukan', 'hanya', 'produksi', 'ada', 'kebudayaan', 'di', 'dalamnya']</t>
+          <t>['al', 'fatihah', 'dan', 'salawat', 'utk', 'almarhum', 'tercinta']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['al', 'fatihah', 'dan', 'salawat', 'untuk', 'almarhum', 'tercinta']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['laksono', 'menugal', 'kalimantan', 'ngaseuk', 'sunda', 'banten', 'pertanian', 'produksi', 'kebudayaan', 'dalamnya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['laksono', 'tugal', 'kalimantan', 'ngaseuk', 'sunda', 'banten', 'tani', 'produksi', 'budaya', 'dalam']</t>
+          <t>['al', 'fatihah', 'salawat', 'almarhum', 'tercinta']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['al', 'fatihah', 'salawat', 'almarhum', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17173</v>
+        <v>27942</v>
       </c>
       <c r="C31" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt keluarga besar ahlulbait indonesia mengucapkan selamat hari lahir nahdlatul ulama ke online update</t>
+          <t>selamat jalan ustadz</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'hari', 'lahir', 'nahdlatul', 'ulama', 'ke', 'online', 'update']</t>
+          <t>['selamat', 'jalan', 'ustadz']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selamat', 'jalan', 'ustaz']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'lahir', 'nahdlatul', 'ulama', 'online', 'update']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'lahir', 'nahdlatul', 'ulama', 'online', 'update']</t>
+          <t>['selamat', 'jalan', 'ustaz']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['selamat', 'jalan', 'ustaz']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17174</v>
+        <v>27943</v>
       </c>
       <c r="C32" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt indonesia sebanyak jiwa terdampak banjir di kab tanah laut provinsi kalimantan selatan akibat meluapnya air sungai di ke</t>
+          <t>rt bagir sajian menarik dari ttg nderes kitab naqsy alfushush ringkasan fushush alhikam ibn arabi ayo daftar rama</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'indonesia', 'sebanyak', 'jiwa', 'terdampak', 'banjir', 'di', 'kab', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'meluapnya', 'air', 'sungai', 'di', 'ke']</t>
+          <t>['rt', 'bagir', 'sajian', 'menarik', 'dari', 'ttg', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkasan', 'fushush', 'alhikam', 'ibn', 'arabi', 'ayo', 'daftar', 'rama']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'sajian', 'menarik', 'dari', 'tentang', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkasan', 'fushush', 'alhikam', 'ibn', 'arabi', 'ayo', 'daftar', 'rama']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['indonesia', 'jiwa', 'terdampak', 'banjir', 'kab', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'meluapnya', 'air', 'sungai']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['indonesia', 'jiwa', 'dampak', 'banjir', 'kab', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'luap', 'air', 'sungai']</t>
+          <t>['bagir', 'sajian', 'menarik', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkasan', 'fushush', 'alhikam', 'ibn', 'arabi', 'ayo', 'daftar', 'rama']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['bagir', 'saji', 'tarik', 'nderes', 'kitab', 'naqsy', 'alfushush', 'ringkas', 'fushush', 'alhikam', 'ibn', 'arab', 'ayo', 'daftar', 'rama']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17175</v>
+        <v>27944</v>
       </c>
       <c r="C33" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt pengurus besar nahdlatul ulama menyampaikan duka mendalam atas wafatnya habib ali bin abdurachman assegaff</t>
+          <t>rt disabilitas sahabat polantas polri presisi prediktif responbilitas transparasi berkeadilan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'menyampaikan', 'duka', 'mendalam', 'atas', 'wafatnya', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
+          <t>['rt', 'disabilitas', 'sahabat', 'polantas', 'polri', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'berkeadilan']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'disabilitas', 'sahabat', 'polantas', 'kepolisian, republik, indonesia', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'berkeadilan']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['pengurus', 'nahdlatul', 'ulama', 'duka', 'mendalam', 'wafatnya', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['urus', 'nahdlatul', 'ulama', 'duka', 'dalam', 'wafat', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
+          <t>['disabilitas', 'sahabat', 'polantas', 'kepolisian, republik, indonesia', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'berkeadilan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['disabilitas', 'sahabat', 'polantas', 'polisi republik indonesia', 'presisi', 'prediktif', 'responbilitas', 'transparasi', 'adil']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17176</v>
+        <v>27945</v>
       </c>
       <c r="C34" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt bencana gempa di sulbar presiden sampaikan duka cita</t>
+          <t>rt beik hawn dan huwn satu akar kata dua makna kontradiktif</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'bencana', 'gempa', 'di', 'sulbar', 'presiden', 'sampaikan', 'duka', 'cita']</t>
+          <t>['rt', 'beik', 'hawn', 'dan', 'huwn', 'satu', 'akar', 'kata', 'dua', 'makna', 'kontradiktif']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'beik', 'hawn', 'dan', 'huwn', 'satu', 'akar', 'kata', 'dua', 'makna', 'kontradiktif']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['bencana', 'gempa', 'sulbar', 'presiden', 'duka', 'cita']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bencana', 'gempa', 'sulbar', 'presiden', 'duka', 'cita']</t>
+          <t>['beik', 'hawn', 'huwn', 'akar', 'makna', 'kontradiktif']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['beik', 'hawn', 'huwn', 'akar', 'makna', 'kontradiktif']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17177</v>
+        <v>27946</v>
       </c>
       <c r="C35" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt kemenag berharap pesantren jadi prioritas penerima vaksin</t>
+          <t>rt hmi connection terbangun karena kader hmi berteman lebih dari saudara perkaderan tanpa putus di ribuan komisariat fakult</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'kemenag', 'berharap', 'pesantren', 'jadi', 'prioritas', 'penerima', 'vaksin']</t>
+          <t>['rt', 'hmi', 'connection', 'terbangun', 'karena', 'kader', 'hmi', 'berteman', 'lebih', 'dari', 'saudara', 'perkaderan', 'tanpa', 'putus', 'di', 'ribuan', 'komisariat', 'fakult']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'himpunan, mahasiswa, islam', 'connection', 'terbangun', 'karena', 'kader', 'himpunan, mahasiswa, islam', 'berteman', 'lebih', 'dari', 'saudara', 'perkaderan', 'tanpa', 'putus', 'di', 'ribuan', 'komisariat', 'fakult']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['kemenag', 'berharap', 'pesantren', 'prioritas', 'penerima', 'vaksin']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['kemenag', 'harap', 'pesantren', 'prioritas', 'terima', 'vaksin']</t>
+          <t>['himpunan, mahasiswa, islam', 'connection', 'terbangun', 'kader', 'himpunan, mahasiswa, islam', 'berteman', 'saudara', 'perkaderan', 'putus', 'ribuan', 'komisariat', 'fakult']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['himpun mahasiswa islam', 'connection', 'bangun', 'kader', 'himpun mahasiswa islam', 'teman', 'saudara', 'kader', 'putus', 'ribu', 'komisariat', 'fakult']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17178</v>
+        <v>27947</v>
       </c>
       <c r="C36" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya syaikh ali jaber semoga almarhum</t>
+          <t>rt laksono menugal di kalimantan ngaseuk di sunda dan banten pertanian memang bukan hanya produksi ada kebudayaan di dalamnya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'syaikh', 'ali', 'jaber', 'semoga', 'almarhum']</t>
+          <t>['rt', 'laksono', 'menugal', 'di', 'kalimantan', 'ngaseuk', 'di', 'sunda', 'dan', 'banten', 'pertanian', 'memang', 'bukan', 'hanya', 'produksi', 'ada', 'kebudayaan', 'di', 'dalamnya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'laksono', 'menugal', 'di', 'kalimantan', 'ngaseuk', 'di', 'sunda', 'dan', 'banten', 'pertanian', 'memang', 'bukan', 'hanya', 'produksi', 'ada', 'kebudayaan', 'di', 'dalamnya']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'syaikh', 'ali', 'jaber', 'semoga', 'almarhum']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'syaikh', 'ali', 'jaber', 'moga', 'almarhum']</t>
+          <t>['laksono', 'menugal', 'kalimantan', 'ngaseuk', 'sunda', 'banten', 'pertanian', 'produksi', 'kebudayaan', 'dalamnya']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['laksono', 'tugal', 'kalimantan', 'ngaseuk', 'sunda', 'banten', 'tani', 'produksi', 'budaya', 'dalam']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17179</v>
+        <v>27948</v>
       </c>
       <c r="C37" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt syekh ali jaber wafat di rs yarsi hari ini pukul wib syekh ali jaber wafat setelah menjalani perawatan karena covi</t>
+          <t>rt keluarga besar ahlulbait indonesia mengucapkan selamat hari lahir nahdlatul ulama ke online update</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'syekh', 'ali', 'jaber', 'wafat', 'di', 'rs', 'yarsi', 'hari', 'ini', 'pukul', 'wib', 'syekh', 'ali', 'jaber', 'wafat', 'setelah', 'menjalani', 'perawatan', 'karena', 'covi']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'hari', 'lahir', 'nahdlatul', 'ulama', 'ke', 'online', 'update']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'hari', 'lahir', 'nahdlatul', 'ulama', 'ke', 'online', 'pembaruan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['syekh', 'ali', 'jaber', 'wafat', 'rs', 'yarsi', 'wib', 'syekh', 'ali', 'jaber', 'wafat', 'menjalani', 'perawatan', 'covi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['syekh', 'ali', 'jaber', 'wafat', 'rs', 'yarsi', 'wib', 'syekh', 'ali', 'jaber', 'wafat', 'jalan', 'awat', 'covi']</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'lahir', 'nahdlatul', 'ulama', 'online', 'pembaruan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'lahir', 'nahdlatul', 'ulama', 'online', 'baru']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17180</v>
+        <v>27949</v>
       </c>
       <c r="C38" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt majjaguru ammai</t>
+          <t>rt indonesia sebanyak jiwa terdampak banjir di kab tanah laut provinsi kalimantan selatan akibat meluapnya air sungai di ke</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'majjaguru', 'ammai']</t>
+          <t>['rt', 'indonesia', 'sebanyak', 'jiwa', 'terdampak', 'banjir', 'di', 'kab', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'meluapnya', 'air', 'sungai', 'di', 'ke']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'indonesia', 'sebanyak', 'jiwa', 'terdampak', 'banjir', 'di', 'kabupaten', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'meluapnya', 'air', 'sungai', 'di', 'ke']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['majjaguru', 'ammai']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['majjaguru', 'ammai']</t>
+          <t>['indonesia', 'jiwa', 'terdampak', 'banjir', 'kabupaten', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'meluapnya', 'air', 'sungai']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['indonesia', 'jiwa', 'dampak', 'banjir', 'kabupaten', 'tanah', 'laut', 'provinsi', 'kalimantan', 'selatan', 'akibat', 'luap', 'air', 'sungai']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17181</v>
+        <v>27950</v>
       </c>
       <c r="C39" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt mohon dibantu sebarkan semoga segera dilancarkan dan kembali pulih saudaraku cc</t>
+          <t>rt pengurus besar nahdlatul ulama menyampaikan duka mendalam atas wafatnya habib ali bin abdurachman assegaff</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'mohon', 'dibantu', 'sebarkan', 'semoga', 'segera', 'dilancarkan', 'dan', 'kembali', 'pulih', 'saudaraku', 'cc']</t>
+          <t>['rt', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'menyampaikan', 'duka', 'mendalam', 'atas', 'wafatnya', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'menyampaikan', 'duka', 'mendalam', 'atas', 'wafatnya', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['mohon', 'dibantu', 'sebarkan', 'semoga', 'dilancarkan', 'pulih', 'saudaraku', 'cc']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['mohon', 'bantu', 'sebar', 'moga', 'lancar', 'pulih', 'saudara', 'cc']</t>
+          <t>['pengurus', 'nahdlatul', 'ulama', 'duka', 'mendalam', 'wafatnya', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['urus', 'nahdlatul', 'ulama', 'duka', 'dalam', 'wafat', 'habib', 'ali', 'bin', 'abdurachman', 'assegaff']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17182</v>
+        <v>27951</v>
       </c>
       <c r="C40" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt ulama syiah dan sunni bahas strategi persatuan umat islam</t>
+          <t>rt bencana gempa di sulbar presiden sampaikan duka cita</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'ulama', 'syiah', 'dan', 'sunni', 'bahas', 'strategi', 'persatuan', 'umat', 'islam']</t>
+          <t>['rt', 'bencana', 'gempa', 'di', 'sulbar', 'presiden', 'sampaikan', 'duka', 'cita']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'bencana', 'gempa', 'di', 'sulbar', 'presiden', 'sampaikan', 'duka', 'cita']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['ulama', 'syiah', 'sunni', 'bahas', 'strategi', 'persatuan', 'umat', 'islam']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['ulama', 'syiah', 'sunni', 'bahas', 'strategi', 'satu', 'umat', 'islam']</t>
+          <t>['bencana', 'gempa', 'sulbar', 'presiden', 'duka', 'cita']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['bencana', 'gempa', 'sulbar', 'presiden', 'duka', 'cita']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17183</v>
+        <v>27952</v>
       </c>
       <c r="C41" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt safinah quote wasiat jibril tentang salat malam baca selengkapnya di safinahonline</t>
+          <t>rt kemenag berharap pesantren jadi prioritas penerima vaksin</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'safinah', 'quote', 'wasiat', 'jibril', 'tentang', 'salat', 'malam', 'baca', 'selengkapnya', 'di', 'safinahonline']</t>
+          <t>['rt', 'kemenag', 'berharap', 'pesantren', 'jadi', 'prioritas', 'penerima', 'vaksin']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'kementerian, agama', 'berharap', 'pesantren', 'jadi', 'prioritas', 'penerima', 'vaksin']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['safinah', 'quote', 'wasiat', 'jibril', 'salat', 'malam', 'baca', 'selengkapnya', 'safinahonline']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['safinah', 'quote', 'wasiat', 'jibril', 'salat', 'malam', 'baca', 'lengkap', 'safinahonline']</t>
+          <t>['kementerian, agama', 'berharap', 'pesantren', 'prioritas', 'penerima', 'vaksin']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['menteri agama', 'harap', 'pesantren', 'prioritas', 'terima', 'vaksin']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17184</v>
+        <v>27953</v>
       </c>
       <c r="C42" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt sekelumit gagasan dan kiprah muhammad taq misbhyazd</t>
+          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya syaikh ali jaber semoga almarhum</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'sekelumit', 'gagasan', 'dan', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'syaikh', 'ali', 'jaber', 'semoga', 'almarhum']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'syaikh', 'ali', 'jaber', 'semoga', 'almarhum']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['sekelumit', 'gagasan', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['kelumit', 'gagas', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'syaikh', 'ali', 'jaber', 'semoga', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'syaikh', 'ali', 'jaber', 'moga', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17185</v>
+        <v>27954</v>
       </c>
       <c r="C43" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt innalilahi wa inna ilaihi rajiun keluarga besar ahlulbait indonesia mengucapkan bela sungkawa mendalam atas wafat nya</t>
+          <t>rt syekh ali jaber wafat di rs yarsi hari ini pukul wib syekh ali jaber wafat setelah menjalani perawatan karena covi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'bela', 'sungkawa', 'mendalam', 'atas', 'wafat', 'nya']</t>
+          <t>['rt', 'syekh', 'ali', 'jaber', 'wafat', 'di', 'rs', 'yarsi', 'hari', 'ini', 'pukul', 'wib', 'syekh', 'ali', 'jaber', 'wafat', 'setelah', 'menjalani', 'perawatan', 'karena', 'covi']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'syekh', 'ali', 'jaber', 'wafat', 'di', 'rumah, sakit', 'yarsi', 'hari', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'syekh', 'ali', 'jaber', 'wafat', 'setelah', 'menjalani', 'perawatan', 'karena', 'covi']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'ahlulbait', 'indonesia', 'bela', 'sungkawa', 'mendalam', 'wafat']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'ahlulbait', 'indonesia', 'bela', 'sungkawa', 'dalam', 'wafat']</t>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'rumah, sakit', 'yarsi', 'waktu, indonesia, bagian, barat', 'syekh', 'ali', 'jaber', 'wafat', 'menjalani', 'perawatan', 'covi']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'rumah sakit', 'yarsi', 'waktu indonesia bagi barat', 'syekh', 'ali', 'jaber', 'wafat', 'jalan', 'awat', 'covi']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17186</v>
+        <v>27955</v>
       </c>
       <c r="C44" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt jesus lahir tanpa ayah tapi tetap perlu ibu setiap hari adalah hari ibu</t>
+          <t>rt majjaguru ammai</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'jesus', 'lahir', 'tanpa', 'ayah', 'tapi', 'tetap', 'perlu', 'ibu', 'setiap', 'hari', 'adalah', 'hari', 'ibu']</t>
+          <t>['rt', 'majjaguru', 'ammai']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'majjaguru', 'ammai']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['jesus', 'lahir', 'ayah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jesus', 'lahir', 'ayah']</t>
+          <t>['majjaguru', 'ammai']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['majjaguru', 'ammai']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17187</v>
+        <v>27956</v>
       </c>
       <c r="C45" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt mohon dibantu sebarkan semoga segera dilancarkan dan kembali pulih saudaraku cc</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'mohon', 'dibantu', 'sebarkan', 'semoga', 'segera', 'dilancarkan', 'dan', 'kembali', 'pulih', 'saudaraku', 'cc']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'mohon', 'dibantu', 'sebarkan', 'semoga', 'segera', 'dilancarkan', 'dan', 'kembali', 'pulih', 'saudaraku', 'cc']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mohon', 'dibantu', 'sebarkan', 'semoga', 'dilancarkan', 'pulih', 'saudaraku', 'cc']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['mohon', 'bantu', 'sebar', 'moga', 'lancar', 'pulih', 'saudara', 'cc']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17188</v>
+        <v>27957</v>
       </c>
       <c r="C46" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt hari ini warga dki positif covid dinkes perketat protokol kesehatan</t>
+          <t>rt ulama syiah dan sunni bahas strategi persatuan umat islam</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'hari', 'ini', 'warga', 'dki', 'positif', 'covid', 'dinkes', 'perketat', 'protokol', 'kesehatan']</t>
+          <t>['rt', 'ulama', 'syiah', 'dan', 'sunni', 'bahas', 'strategi', 'persatuan', 'umat', 'islam']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'ulama', 'syiah', 'dan', 'sunni', 'bahas', 'strategi', 'persatuan', 'umat', 'islam']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['warga', 'dki', 'positif', 'covid', 'dinkes', 'perketat', 'protokol', 'kesehatan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['warga', 'dki', 'positif', 'covid', 'dinkes', 'ketat', 'protokol', 'sehat']</t>
+          <t>['ulama', 'syiah', 'sunni', 'bahas', 'strategi', 'persatuan', 'umat', 'islam']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['ulama', 'syiah', 'sunni', 'bahas', 'strategi', 'satu', 'umat', 'islam']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17189</v>
+        <v>27958</v>
       </c>
       <c r="C47" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt khitanan massal nov alhamdulilah proses khitanan masal tahap  dana mustadhafin telah berjalan baik dan lancar </t>
+          <t>rt safinah quote wasiat jibril tentang salat malam baca selengkapnya di safinahonline</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'khitanan', 'massal', 'nov', 'alhamdulilah', 'proses', 'khitanan', 'masal', 'tahap', 'dana', 'mustadhafin', 'telah', 'berjalan', 'baik', 'dan', 'lancar']</t>
+          <t>['rt', 'safinah', 'quote', 'wasiat', 'jibril', 'tentang', 'salat', 'malam', 'baca', 'selengkapnya', 'di', 'safinahonline']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'safinah', 'kutipan', 'wasiat', 'jibril', 'tentang', 'salat', 'malam', 'baca', 'selengkapnya', 'di', 'safinahonline']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['khitanan', 'massal', 'nov', 'alhamdulilah', 'proses', 'khitanan', 'masal', 'tahap', 'dana', 'mustadhafin', 'berjalan', 'lancar']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['khitan', 'massal', 'nov', 'alhamdulilah', 'proses', 'khitan', 'masal', 'tahap', 'dana', 'mustadhafin', 'jalan', 'lancar']</t>
+          <t>['safinah', 'kutipan', 'wasiat', 'jibril', 'salat', 'malam', 'baca', 'selengkapnya', 'safinahonline']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['safinah', 'kutip', 'wasiat', 'jibril', 'salat', 'malam', 'baca', 'lengkap', 'safinahonline']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17190</v>
+        <v>27959</v>
       </c>
       <c r="C48" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt keluarga besar ahlulbait indonesia mengucapkan selamat dan sukses atas terpilihnya khmiftachul akhyar sebagai ketua umu</t>
+          <t>rt sekelumit gagasan dan kiprah muhammad taq misbhyazd</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'dan', 'sukses', 'atas', 'terpilihnya', 'khmiftachul', 'akhyar', 'sebagai', 'ketua', 'umu']</t>
+          <t>['rt', 'sekelumit', 'gagasan', 'dan', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'sekelumit', 'gagasan', 'dan', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'sukses', 'terpilihnya', 'khmiftachul', 'akhyar', 'ketua', 'umu']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'sukses', 'pilih', 'khmiftachul', 'akhyar', 'ketua', 'umu']</t>
+          <t>['sekelumit', 'gagasan', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['kelumit', 'gagas', 'kiprah', 'muhammad', 'taq', 'misbhyazd']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17191</v>
+        <v>27960</v>
       </c>
       <c r="C49" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt tugas ulama adalah berdakwah tanpa mengejek merangkul bukan memukul menyayangi bukan menyaingi mendidik bukan membid</t>
+          <t>rt innalilahi wa inna ilaihi rajiun keluarga besar ahlulbait indonesia mengucapkan bela sungkawa mendalam atas wafat nya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'tugas', 'ulama', 'adalah', 'berdakwah', 'tanpa', 'mengejek', 'merangkul', 'bukan', 'memukul', 'menyayangi', 'bukan', 'menyaingi', 'mendidik', 'bukan', 'membid']</t>
+          <t>['rt', 'innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'bela', 'sungkawa', 'mendalam', 'atas', 'wafat', 'nya']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'bela', 'sungkawa', 'mendalam', 'atas', 'wafat', 'nya']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['tugas', 'ulama', 'berdakwah', 'mengejek', 'merangkul', 'memukul', 'menyayangi', 'menyaingi', 'mendidik', 'membid']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['tugas', 'ulama', 'dakwah', 'ejek', 'rangkul', 'pukul', 'sayang', 'saing', 'didik', 'membid']</t>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'ahlulbait', 'indonesia', 'bela', 'sungkawa', 'mendalam', 'wafat']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'ahlulbait', 'indonesia', 'bela', 'sungkawa', 'dalam', 'wafat']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17192</v>
+        <v>27961</v>
       </c>
       <c r="C50" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt menlu retno tegaskan dukungan indonesia untuk palestina</t>
+          <t>rt jesus lahir tanpa ayah tapi tetap perlu ibu setiap hari adalah hari ibu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'menlu', 'retno', 'tegaskan', 'dukungan', 'indonesia', 'untuk', 'palestina']</t>
+          <t>['rt', 'jesus', 'lahir', 'tanpa', 'ayah', 'tapi', 'tetap', 'perlu', 'ibu', 'setiap', 'hari', 'adalah', 'hari', 'ibu']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'yesus', 'lahir', 'tanpa', 'ayah', 'tapi', 'tetap', 'perlu', 'ibu', 'setiap', 'hari', 'adalah', 'hari', 'ibu']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['menlu', 'retno', 'tegaskan', 'dukungan', 'indonesia', 'palestina']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['menlu', 'retno', 'tegas', 'dukung', 'indonesia', 'palestina']</t>
+          <t>['yesus', 'lahir', 'ayah']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['yesus', 'lahir', 'ayah']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17193</v>
+        <v>27962</v>
       </c>
       <c r="C51" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt tetangga dalam pandangan alquran</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'tetangga', 'dalam', 'pandangan', 'alquran']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['tetangga', 'pandangan', 'alquran']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['tetangga', 'pandang', 'alquran']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17194</v>
+        <v>27963</v>
       </c>
       <c r="C52" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt kami segenap pengurus yayasan dana mustadhafin mengucapkan selamat dan sukses kepada kh miftachul akhyar sebagai ketua</t>
+          <t>rt hari ini warga dki positif covid dinkes perketat protokol kesehatan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'kami', 'segenap', 'pengurus', 'yayasan', 'dana', 'mustadhafin', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'kh', 'miftachul', 'akhyar', 'sebagai', 'ketua']</t>
+          <t>['rt', 'hari', 'ini', 'warga', 'dki', 'positif', 'covid', 'dinkes', 'perketat', 'protokol', 'kesehatan']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'warga', 'daerah, khusus, ibukota', 'positif', 'covid', 'dinkes', 'perketat', 'protokol', 'kesehatan']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['segenap', 'pengurus', 'yayasan', 'dana', 'mustadhafin', 'selamat', 'sukses', 'kh', 'miftachul', 'akhyar', 'ketua']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['segenap', 'urus', 'yayasan', 'dana', 'mustadhafin', 'selamat', 'sukses', 'kh', 'miftachul', 'akhyar', 'ketua']</t>
+          <t>['warga', 'daerah, khusus, ibukota', 'positif', 'covid', 'dinkes', 'perketat', 'protokol', 'kesehatan']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['warga', 'daerah khusus ibukota', 'positif', 'covid', 'dinkes', 'ketat', 'protokol', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17195</v>
+        <v>27964</v>
       </c>
       <c r="C53" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt dalam seminggu ini dokter yg bekerja bersama saya di rs terinfeksi covid ruang isolasi untuk pasien penuh hampir tiap ha</t>
+          <t xml:space="preserve">rt khitanan massal nov alhamdulilah proses khitanan masal tahap  dana mustadhafin telah berjalan baik dan lancar </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'seminggu', 'ini', 'dokter', 'yg', 'bekerja', 'bersama', 'saya', 'di', 'rs', 'terinfeksi', 'covid', 'ruang', 'isolasi', 'untuk', 'pasien', 'penuh', 'hampir', 'tiap', 'ha']</t>
+          <t>['rt', 'khitanan', 'massal', 'nov', 'alhamdulilah', 'proses', 'khitanan', 'masal', 'tahap', 'dana', 'mustadhafin', 'telah', 'berjalan', 'baik', 'dan', 'lancar']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'khitanan', 'massal', 'november', 'alhamdulillah', 'proses', 'khitanan', 'masal', 'tahap', 'dana', 'mustadhafin', 'telah', 'berjalan', 'baik', 'dan', 'lancar']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['seminggu', 'dokter', 'rs', 'terinfeksi', 'covid', 'ruang', 'isolasi', 'pasien', 'penuh', 'ha']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['minggu', 'dokter', 'rs', 'infeksi', 'covid', 'ruang', 'isolasi', 'pasien', 'penuh', 'ha']</t>
+          <t>['khitanan', 'massal', 'november', 'alhamdulillah', 'proses', 'khitanan', 'masal', 'tahap', 'dana', 'mustadhafin', 'berjalan', 'lancar']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['khitan', 'massal', 'november', 'alhamdulillah', 'proses', 'khitan', 'masal', 'tahap', 'dana', 'mustadhafin', 'jalan', 'lancar']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17196</v>
+        <v>27965</v>
       </c>
       <c r="C54" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt rusi selamat kepada pimpinan pusat mui yang baru yang juga rois aam pbnu kh miftakhul akhyar semoga selalu sehat dan dapat memb</t>
+          <t>rt keluarga besar ahlulbait indonesia mengucapkan selamat dan sukses atas terpilihnya khmiftachul akhyar sebagai ketua umu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'rusi', 'selamat', 'kepada', 'pimpinan', 'pusat', 'mui', 'yang', 'baru', 'yang', 'juga', 'rois', 'aam', 'pbnu', 'kh', 'miftakhul', 'akhyar', 'semoga', 'selalu', 'sehat', 'dan', 'dapat', 'memb']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'dan', 'sukses', 'atas', 'terpilihnya', 'khmiftachul', 'akhyar', 'sebagai', 'ketua', 'umu']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'mengucapkan', 'selamat', 'dan', 'sukses', 'atas', 'terpilihnya', 'khmiftachul', 'akhyar', 'sebagai', 'ketua', 'umu']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['rusi', 'selamat', 'pimpinan', 'pusat', 'mui', 'rois', 'aam', 'pbnu', 'kh', 'miftakhul', 'akhyar', 'semoga', 'sehat', 'memb']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['rusi', 'selamat', 'pimpin', 'pusat', 'mui', 'rois', 'aam', 'pbnu', 'kh', 'miftakhul', 'akhyar', 'moga', 'sehat', 'memb']</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'sukses', 'terpilihnya', 'khmiftachul', 'akhyar', 'ketua', 'umu']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'selamat', 'sukses', 'pilih', 'khmiftachul', 'akhyar', 'ketua', 'umu']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17197</v>
+        <v>27966</v>
       </c>
       <c r="C55" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt by kabsemarang jumat november pkl wib mobile unit today kantor kecamatan tuntang info</t>
+          <t>rt tugas ulama adalah berdakwah tanpa mengejek merangkul bukan memukul menyayangi bukan menyaingi mendidik bukan membid</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'by', 'kabsemarang', 'jumat', 'november', 'pkl', 'wib', 'mobile', 'unit', 'today', 'kantor', 'kecamatan', 'tuntang', 'info']</t>
+          <t>['rt', 'tugas', 'ulama', 'adalah', 'berdakwah', 'tanpa', 'mengejek', 'merangkul', 'bukan', 'memukul', 'menyayangi', 'bukan', 'menyaingi', 'mendidik', 'bukan', 'membid']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'tugas', 'ulama', 'adalah', 'berdakwah', 'tanpa', 'mengejek', 'merangkul', 'bukan', 'memukul', 'menyayangi', 'bukan', 'menyaingi', 'mendidik', 'bukan', 'membid']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['by', 'kabsemarang', 'jumat', 'november', 'pkl', 'wib', 'mobile', 'unit', 'today', 'kantor', 'kecamatan', 'tuntang', 'info']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['by', 'kabsemarang', 'jumat', 'november', 'pkl', 'wib', 'mobile', 'unit', 'today', 'kantor', 'camat', 'tuntang', 'info']</t>
+          <t>['tugas', 'ulama', 'berdakwah', 'mengejek', 'merangkul', 'memukul', 'menyayangi', 'menyaingi', 'mendidik', 'membid']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['tugas', 'ulama', 'dakwah', 'ejek', 'rangkul', 'pukul', 'sayang', 'saing', 'didik', 'membid']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17198</v>
+        <v>27967</v>
       </c>
       <c r="C56" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt selamat jalan aktivis pejuang dan sahabat kita alm sayyid husein omar hashem assegaf kau telah mencoba memberi yg terbaik da</t>
+          <t>rt menlu retno tegaskan dukungan indonesia untuk palestina</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'jalan', 'aktivis', 'pejuang', 'dan', 'sahabat', 'kita', 'alm', 'sayyid', 'husein', 'omar', 'hashem', 'assegaf', 'kau', 'telah', 'mencoba', 'memberi', 'yg', 'terbaik', 'da']</t>
+          <t>['rt', 'menlu', 'retno', 'tegaskan', 'dukungan', 'indonesia', 'untuk', 'palestina']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'menteri, luar, negeri', 'retno', 'tegaskan', 'dukungan', 'indonesia', 'untuk', 'palestina']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'aktivis', 'pejuang', 'sahabat', 'alm', 'sayyid', 'husein', 'omar', 'hashem', 'assegaf', 'kau', 'mencoba', 'terbaik', 'da']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['selamat', 'jalan', 'aktivis', 'juang', 'sahabat', 'alm', 'sayyid', 'husein', 'omar', 'hashem', 'assegaf', 'kau', 'coba', 'baik', 'da']</t>
+          <t>['menteri, luar, negeri', 'retno', 'tegaskan', 'dukungan', 'indonesia', 'palestina']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['menteri luar negeri', 'retno', 'tegas', 'dukung', 'indonesia', 'palestina']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17199</v>
+        <v>27968</v>
       </c>
       <c r="C57" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt azyumardi kita beruntung punya ormas masyarakat sipil seperti muhammadiyah yang ini merayakan hari jadi ke dirgah</t>
+          <t>rt tetangga dalam pandangan alquran</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'azyumardi', 'kita', 'beruntung', 'punya', 'ormas', 'masyarakat', 'sipil', 'seperti', 'muhammadiyah', 'yang', 'ini', 'merayakan', 'hari', 'jadi', 'ke', 'dirgah']</t>
+          <t>['rt', 'tetangga', 'dalam', 'pandangan', 'alquran']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'tetangga', 'dalam', 'pandangan', 'alquran']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['azyumardi', 'beruntung', 'ormas', 'masyarakat', 'sipil', 'muhammadiyah', 'merayakan', 'dirgah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['azyumardi', 'untung', 'ormas', 'masyarakat', 'sipil', 'muhammadiyah', 'raya', 'dirgah']</t>
+          <t>['tetangga', 'pandangan', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['tetangga', 'pandang', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17200</v>
+        <v>27969</v>
       </c>
       <c r="C58" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt semoga allah merahmati beliau lahul fatihah</t>
+          <t>rt kami segenap pengurus yayasan dana mustadhafin mengucapkan selamat dan sukses kepada kh miftachul akhyar sebagai ketua</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'allah', 'merahmati', 'beliau', 'lahul', 'fatihah']</t>
+          <t>['rt', 'kami', 'segenap', 'pengurus', 'yayasan', 'dana', 'mustadhafin', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'kh', 'miftachul', 'akhyar', 'sebagai', 'ketua']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'kami', 'segenap', 'pengurus', 'yayasan', 'dana', 'mustadhafin', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'kh', 'miftachul', 'akhyar', 'sebagai', 'ketua']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'merahmati', 'beliau', 'lahul', 'fatihah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'rahmat', 'beliau', 'lahul', 'fatihah']</t>
+          <t>['segenap', 'pengurus', 'yayasan', 'dana', 'mustadhafin', 'selamat', 'sukses', 'kh', 'miftachul', 'akhyar', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['segenap', 'urus', 'yayasan', 'dana', 'mustadhafin', 'selamat', 'sukses', 'kh', 'miftachul', 'akhyar', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17201</v>
+        <v>27970</v>
       </c>
       <c r="C59" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt puisi beliau bbrp pekan lalu</t>
+          <t>rt dalam seminggu ini dokter yg bekerja bersama saya di rs terinfeksi covid ruang isolasi untuk pasien penuh hampir tiap ha</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'puisi', 'beliau', 'bbrp', 'pekan', 'lalu']</t>
+          <t>['rt', 'dalam', 'seminggu', 'ini', 'dokter', 'yg', 'bekerja', 'bersama', 'saya', 'di', 'rs', 'terinfeksi', 'covid', 'ruang', 'isolasi', 'untuk', 'pasien', 'penuh', 'hampir', 'tiap', 'ha']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'seminggu', 'ini', 'dokter', 'yang', 'bekerja', 'bersama', 'saya', 'di', 'rumah, sakit', 'terinfeksi', 'covid', 'ruang', 'isolasi', 'untuk', 'pasien', 'penuh', 'hampir', 'tiap', 'apa']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['puisi', 'beliau', 'bbrp', 'pekan']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['puisi', 'beliau', 'bbrp', 'pekan']</t>
+          <t>['seminggu', 'dokter', 'rumah, sakit', 'terinfeksi', 'covid', 'ruang', 'isolasi', 'pasien', 'penuh']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['minggu', 'dokter', 'rumah sakit', 'infeksi', 'covid', 'ruang', 'isolasi', 'pasien', 'penuh']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17202</v>
+        <v>27971</v>
       </c>
       <c r="C60" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt buku lawas gt jejak jejak ruhani oleh murtadha muthahhari tahun halaman harga minat order </t>
+          <t>rt rusi selamat kepada pimpinan pusat mui yang baru yang juga rois aam pbnu kh miftakhul akhyar semoga selalu sehat dan dapat memb</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'buku', 'lawas', 'gt', 'jejak', 'jejak', 'ruhani', 'oleh', 'murtadha', 'muthahhari', 'tahun', 'halaman', 'harga', 'minat', 'order']</t>
+          <t>['rt', 'rusi', 'selamat', 'kepada', 'pimpinan', 'pusat', 'mui', 'yang', 'baru', 'yang', 'juga', 'rois', 'aam', 'pbnu', 'kh', 'miftakhul', 'akhyar', 'semoga', 'selalu', 'sehat', 'dan', 'dapat', 'memb']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'rusi', 'selamat', 'kepada', 'pimpinan', 'pusat', 'majelis, ulama, indonesia', 'yang', 'baru', 'yang', 'juga', 'rois', 'aam', 'pengurus, besar, nahdlatul, ulama', 'kh', 'miftakhul', 'akhyar', 'semoga', 'selalu', 'sehat', 'dan', 'dapat', 'memb']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['buku', 'lawas', 'gt', 'jejak', 'jejak', 'ruhani', 'murtadha', 'muthahhari', 'halaman', 'harga', 'minat', 'order']</t>
+          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['buku', 'lawas', 'gt', 'jejak', 'jejak', 'ruhani', 'murtadha', 'muthahhari', 'halaman', 'harga', 'minat', 'order']</t>
+          <t>['rusi', 'selamat', 'pimpinan', 'pusat', 'majelis, ulama, indonesia', 'rois', 'aam', 'pengurus, besar, nahdlatul, ulama', 'kh', 'miftakhul', 'akhyar', 'semoga', 'sehat', 'memb']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['rusi', 'selamat', 'pimpin', 'pusat', 'majelis ulama indonesia', 'rois', 'aam', 'urus besar nahdlatul ulama', 'kh', 'miftakhul', 'akhyar', 'moga', 'sehat', 'memb']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17203</v>
+        <v>27972</v>
       </c>
       <c r="C61" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt gerakan dana siswa mari bersedekah melalui program gerakan dana siswa dengan menjadi orang tua asuh dan menyalurkan dana</t>
+          <t>rt by kabsemarang jumat november pkl wib mobile unit today kantor kecamatan tuntang info</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'gerakan', 'dana', 'siswa', 'mari', 'bersedekah', 'melalui', 'program', 'gerakan', 'dana', 'siswa', 'dengan', 'menjadi', 'orang', 'tua', 'asuh', 'dan', 'menyalurkan', 'dana']</t>
+          <t>['rt', 'by', 'kabsemarang', 'jumat', 'november', 'pkl', 'wib', 'mobile', 'unit', 'today', 'kantor', 'kecamatan', 'tuntang', 'info']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'by', 'kabsemarang', 'jumat', 'november', 'pukul', 'waktu, indonesia, bagian, barat', 'mobile', 'unit', 'today', 'kantor', 'kecamatan', 'tuntang', 'info']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['gerakan', 'dana', 'siswa', 'mari', 'bersedekah', 'program', 'gerakan', 'dana', 'siswa', 'orang', 'tua', 'asuh', 'menyalurkan', 'dana']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['gera', 'dana', 'siswa', 'mari', 'sedekah', 'program', 'gera', 'dana', 'siswa', 'orang', 'tua', 'asuh', 'salur', 'dana']</t>
+          <t>['by', 'kabsemarang', 'jumat', 'november', 'waktu, indonesia, bagian, barat', 'mobile', 'unit', 'today', 'kantor', 'kecamatan', 'tuntang', 'info']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['by', 'kabsemarang', 'jumat', 'november', 'waktu indonesia bagi barat', 'mobile', 'unit', 'today', 'kantor', 'camat', 'tuntang', 'info']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17204</v>
+        <v>27973</v>
       </c>
       <c r="C62" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt wanita lansia anak anak dan ibu hamil dari desa babadan  kec dukun kab magelang jawa tengah mulai mengungsi di </t>
+          <t>rt selamat jalan aktivis pejuang dan sahabat kita alm sayyid husein omar hashem assegaf kau telah mencoba memberi yg terbaik da</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'wanita', 'lansia', 'anak', 'anak', 'dan', 'ibu', 'hamil', 'dari', 'desa', 'babadan', 'kec', 'dukun', 'kab', 'magelang', 'jawa', 'tengah', 'mulai', 'mengungsi', 'di']</t>
+          <t>['rt', 'selamat', 'jalan', 'aktivis', 'pejuang', 'dan', 'sahabat', 'kita', 'alm', 'sayyid', 'husein', 'omar', 'hashem', 'assegaf', 'kau', 'telah', 'mencoba', 'memberi', 'yg', 'terbaik', 'da']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'jalan', 'aktivis', 'pejuang', 'dan', 'sahabat', 'kita', 'almarhum', 'sayid', 'husein', 'omar', 'hashem', 'assegaf', 'kamu', 'telah', 'mencoba', 'memberi', 'yang', 'terbaik', 'dan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['wanita', 'lansia', 'anak', 'anak', 'hamil', 'desa', 'babadan', 'kec', 'dukun', 'kab', 'magelang', 'jawa', 'mengungsi']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['wanita', 'lansia', 'anak', 'anak', 'hamil', 'desa', 'babad', 'kec', 'dukun', 'kab', 'magelang', 'jawa', 'ungsi']</t>
+          <t>['selamat', 'jalan', 'aktivis', 'pejuang', 'sahabat', 'almarhum', 'sayid', 'husein', 'omar', 'hashem', 'assegaf', 'mencoba', 'terbaik']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['selamat', 'jalan', 'aktivis', 'juang', 'sahabat', 'almarhum', 'sayid', 'husein', 'omar', 'hashem', 'assegaf', 'coba', 'baik']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17205</v>
+        <v>27974</v>
       </c>
       <c r="C63" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt posko kemanusiaan dana mustadhafin bekerjasama dengan madinatul fadhilah parahyangan menyalurkan bantun kemanusiaan bagi</t>
+          <t>rt azyumardi kita beruntung punya ormas masyarakat sipil seperti muhammadiyah yang ini merayakan hari jadi ke dirgah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'posko', 'kemanusiaan', 'dana', 'mustadhafin', 'bekerjasama', 'dengan', 'madinatul', 'fadhilah', 'parahyangan', 'menyalurkan', 'bantun', 'kemanusiaan', 'bagi']</t>
+          <t>['rt', 'azyumardi', 'kita', 'beruntung', 'punya', 'ormas', 'masyarakat', 'sipil', 'seperti', 'muhammadiyah', 'yang', 'ini', 'merayakan', 'hari', 'jadi', 'ke', 'dirgah']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'kita', 'beruntung', 'punya', 'organisasi, masyarakat', 'masyarakat', 'sipil', 'seperti', 'muhammadiyah', 'yang', 'ini', 'merayakan', 'hari', 'jadi', 'ke', 'dirgah']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['posko', 'kemanusiaan', 'dana', 'mustadhafin', 'bekerjasama', 'madinatul', 'fadhilah', 'parahyangan', 'menyalurkan', 'bantun', 'kemanusiaan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['posko', 'manusia', 'dana', 'mustadhafin', 'bekerjasama', 'madinatul', 'fadhilah', 'parahyangan', 'salur', 'bantun', 'manusia']</t>
+          <t>['azyumardi', 'beruntung', 'organisasi, masyarakat', 'masyarakat', 'sipil', 'muhammadiyah', 'merayakan', 'dirgah']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'untung', 'organisasi masyarakat', 'masyarakat', 'sipil', 'muhammadiyah', 'raya', 'dirgah']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17206</v>
+        <v>27975</v>
       </c>
       <c r="C64" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt indonesia kecam pernyataan presiden prancis</t>
+          <t>rt semoga allah merahmati beliau lahul fatihah</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'indonesia', 'kecam', 'pernyataan', 'presiden', 'prancis']</t>
+          <t>['rt', 'semoga', 'allah', 'merahmati', 'beliau', 'lahul', 'fatihah']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'allah', 'merahmati', 'beliau', 'lahul', 'fatihah']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['indonesia', 'kecam', 'pernyataan', 'presiden', 'prancis']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['indonesia', 'kecam', 'nyata', 'presiden', 'prancis']</t>
+          <t>['semoga', 'allah', 'merahmati', 'beliau', 'lahul', 'fatihah']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'rahmat', 'beliau', 'lahul', 'fatihah']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17207</v>
+        <v>27976</v>
       </c>
       <c r="C65" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>semoga semakin banyak umkm berkebang di masa pendemik ini kayalah negeriku jayalah bangsaku</t>
+          <t>rt puisi beliau bbrp pekan lalu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['semoga', 'semakin', 'banyak', 'umkm', 'berkebang', 'di', 'masa', 'pendemik', 'ini', 'kayalah', 'negeriku', 'jayalah', 'bangsaku']</t>
+          <t>['rt', 'puisi', 'beliau', 'bbrp', 'pekan', 'lalu']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'puisi', 'beliau', 'beberapa', 'pekan', 'lalu']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['semoga', 'umkm', 'berkebang', 'pendemik', 'kayalah', 'negeriku', 'jayalah', 'bangsaku']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['moga', 'umkm', 'bang', 'demik', 'kaya', 'negeri', 'jaya', 'bangsa']</t>
+          <t>['puisi', 'beliau', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['puisi', 'beliau', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17208</v>
+        <v>27977</v>
       </c>
       <c r="C66" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt presiden meresmikan jembatan teluk kendari sepanjang kilometer dibangun selama lima tahun dari deng</t>
+          <t xml:space="preserve">rt buku lawas gt jejak jejak ruhani oleh murtadha muthahhari tahun halaman harga minat order </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'presiden', 'meresmikan', 'jembatan', 'teluk', 'kendari', 'sepanjang', 'kilometer', 'dibangun', 'selama', 'lima', 'tahun', 'dari', 'deng']</t>
+          <t>['rt', 'buku', 'lawas', 'gt', 'jejak', 'jejak', 'ruhani', 'oleh', 'murtadha', 'muthahhari', 'tahun', 'halaman', 'harga', 'minat', 'order']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'buku', 'lawas', 'begitu', 'jejak', 'jejak', 'ruhani', 'oleh', 'murtadha', 'muthahhari', 'tahun', 'halaman', 'harga', 'minat', 'order']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['presiden', 'meresmikan', 'jembatan', 'teluk', 'kendari', 'kilometer', 'dibangun', 'deng']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['presiden', 'resmi', 'jembatan', 'teluk', 'kendari', 'kilometer', 'bangun', 'deng']</t>
+          <t>['buku', 'lawas', 'jejak', 'jejak', 'ruhani', 'murtadha', 'muthahhari', 'halaman', 'harga', 'minat', 'order']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['buku', 'lawas', 'jejak', 'jejak', 'ruhani', 'murtadha', 'muthahhari', 'halaman', 'harga', 'minat', 'order']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17209</v>
+        <v>27978</v>
       </c>
       <c r="C67" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt jembatan sepanjang kilometer kini terentang di atas teluk kendari sulawesi tenggara dan menjadi ikon baru kota kendari</t>
+          <t>rt gerakan dana siswa mari bersedekah melalui program gerakan dana siswa dengan menjadi orang tua asuh dan menyalurkan dana</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'jembatan', 'sepanjang', 'kilometer', 'kini', 'terentang', 'di', 'atas', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'dan', 'menjadi', 'ikon', 'baru', 'kota', 'kendari']</t>
+          <t>['rt', 'gerakan', 'dana', 'siswa', 'mari', 'bersedekah', 'melalui', 'program', 'gerakan', 'dana', 'siswa', 'dengan', 'menjadi', 'orang', 'tua', 'asuh', 'dan', 'menyalurkan', 'dana']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'gerakan', 'dana', 'siswa', 'mari', 'bersedekah', 'melalui', 'program', 'gerakan', 'dana', 'siswa', 'dengan', 'menjadi', 'orang', 'tua', 'asuh', 'dan', 'menyalurkan', 'dana']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['jembatan', 'kilometer', 'terentang', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'ikon', 'kota', 'kendari']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['jembatan', 'kilometer', 'terentang', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'ikon', 'kota', 'kendari']</t>
+          <t>['gerakan', 'dana', 'siswa', 'mari', 'bersedekah', 'program', 'gerakan', 'dana', 'siswa', 'orang', 'tua', 'asuh', 'menyalurkan', 'dana']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['gera', 'dana', 'siswa', 'mari', 'sedekah', 'program', 'gera', 'dana', 'siswa', 'orang', 'tua', 'asuh', 'salur', 'dana']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17210</v>
+        <v>27979</v>
       </c>
       <c r="C68" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt santri sehat negara kuat selamat hari santri nasional oktober</t>
+          <t xml:space="preserve">rt wanita lansia anak anak dan ibu hamil dari desa babadan  kec dukun kab magelang jawa tengah mulai mengungsi di </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'santri', 'sehat', 'negara', 'kuat', 'selamat', 'hari', 'santri', 'nasional', 'oktober']</t>
+          <t>['rt', 'wanita', 'lansia', 'anak', 'anak', 'dan', 'ibu', 'hamil', 'dari', 'desa', 'babadan', 'kec', 'dukun', 'kab', 'magelang', 'jawa', 'tengah', 'mulai', 'mengungsi', 'di']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'wanita', 'lanjut, usia', 'anak', 'anak', 'dan', 'ibu', 'hamil', 'dari', 'desa', 'babadan', 'kecamatan', 'dukun', 'kabupaten', 'magelang', 'jawa', 'tengah', 'mulai', 'mengungsi', 'di']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['santri', 'sehat', 'negara', 'kuat', 'selamat', 'santri', 'nasional', 'oktober']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['santri', 'sehat', 'negara', 'kuat', 'selamat', 'santri', 'nasional', 'oktober']</t>
+          <t>['wanita', 'lanjut, usia', 'anak', 'anak', 'hamil', 'desa', 'babadan', 'kecamatan', 'dukun', 'kabupaten', 'magelang', 'jawa', 'mengungsi']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['wanita', 'lanjut usia', 'anak', 'anak', 'hamil', 'desa', 'babad', 'camat', 'dukun', 'kabupaten', 'magelang', 'jawa', 'ungsi']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17211</v>
+        <v>27980</v>
       </c>
       <c r="C69" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt selamat hari santri nasional</t>
+          <t>rt posko kemanusiaan dana mustadhafin bekerjasama dengan madinatul fadhilah parahyangan menyalurkan bantun kemanusiaan bagi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'hari', 'santri', 'nasional']</t>
+          <t>['rt', 'posko', 'kemanusiaan', 'dana', 'mustadhafin', 'bekerjasama', 'dengan', 'madinatul', 'fadhilah', 'parahyangan', 'menyalurkan', 'bantun', 'kemanusiaan', 'bagi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'posko', 'kemanusiaan', 'dana', 'mustadhafin', 'bekerja, sama', 'dengan', 'madinatul', 'fadhilah', 'parahyangan', 'menyalurkan', 'bantun', 'kemanusiaan', 'bagi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['selamat', 'santri', 'nasional']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['selamat', 'santri', 'nasional']</t>
+          <t>['posko', 'kemanusiaan', 'dana', 'mustadhafin', 'bekerja, sama', 'madinatul', 'fadhilah', 'parahyangan', 'menyalurkan', 'bantun', 'kemanusiaan']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['posko', 'manusia', 'dana', 'mustadhafin', 'kerja sama', 'madinatul', 'fadhilah', 'parahyangan', 'salur', 'bantun', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17212</v>
+        <v>27981</v>
       </c>
       <c r="C70" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt selamat hari santri nasional bersama santri indonesia mandiri bersama santri damailah negri dana mustadhafin</t>
+          <t>rt indonesia kecam pernyataan presiden prancis</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'hari', 'santri', 'nasional', 'bersama', 'santri', 'indonesia', 'mandiri', 'bersama', 'santri', 'damailah', 'negri', 'dana', 'mustadhafin']</t>
+          <t>['rt', 'indonesia', 'kecam', 'pernyataan', 'presiden', 'prancis']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'indonesia', 'kecam', 'pernyataan', 'presiden', 'prancis']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['selamat', 'santri', 'nasional', 'santri', 'indonesia', 'mandiri', 'santri', 'damailah', 'negri', 'dana', 'mustadhafin']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['selamat', 'santri', 'nasional', 'santri', 'indonesia', 'mandiri', 'santri', 'damai', 'negri', 'dana', 'mustadhafin']</t>
+          <t>['indonesia', 'kecam', 'pernyataan', 'presiden', 'prancis']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['indonesia', 'kecam', 'nyata', 'presiden', 'prancis']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17213</v>
+        <v>27982</v>
       </c>
       <c r="C71" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya ustadzah wardah binty alwi al had</t>
+          <t>semoga semakin banyak umkm berkebang di masa pendemik ini kayalah negeriku jayalah bangsaku</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
+          <t>['semoga', 'semakin', 'banyak', 'umkm', 'berkebang', 'di', 'masa', 'pendemik', 'ini', 'kayalah', 'negeriku', 'jayalah', 'bangsaku']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['semoga', 'semakin', 'banyak', 'usaha, mikro, kecil, dan, menengah', 'berkebang', 'di', 'masa', 'pendemik', 'ini', 'kayalah', 'negeriku', 'jayalah', 'bangsaku']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
+          <t>['semoga', 'usaha, mikro, kecil, dan, menengah', 'berkebang', 'pendemik', 'kayalah', 'negeriku', 'jayalah', 'bangsaku']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['moga', 'usaha mikro kecil dan tengah', 'bang', 'demik', 'kaya', 'negeri', 'jaya', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17214</v>
+        <v>27983</v>
       </c>
       <c r="C72" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt khutbah terakhir rasulullah di hadapan para sahabat</t>
+          <t>rt presiden meresmikan jembatan teluk kendari sepanjang kilometer dibangun selama lima tahun dari deng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'khutbah', 'terakhir', 'rasulullah', 'di', 'hadapan', 'para', 'sahabat']</t>
+          <t>['rt', 'presiden', 'meresmikan', 'jembatan', 'teluk', 'kendari', 'sepanjang', 'kilometer', 'dibangun', 'selama', 'lima', 'tahun', 'dari', 'deng']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'presiden', 'meresmikan', 'jembatan', 'teluk', 'kendari', 'sepanjang', 'kilometer', 'dibangun', 'selama', 'lima', 'tahun', 'dari', 'deng']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['khutbah', 'rasulullah', 'hadapan', 'sahabat']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['khutbah', 'rasulullah', 'hadap', 'sahabat']</t>
+          <t>['presiden', 'meresmikan', 'jembatan', 'teluk', 'kendari', 'kilometer', 'dibangun', 'deng']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['presiden', 'resmi', 'jembatan', 'teluk', 'kendari', 'kilometer', 'bangun', 'deng']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17215</v>
+        <v>27984</v>
       </c>
       <c r="C73" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt sebuah masjid di kota baru dekat fort de kock bukittinggi dalam sebuah kartu pos tahun tidak diketahui</t>
+          <t>rt jembatan sepanjang kilometer kini terentang di atas teluk kendari sulawesi tenggara dan menjadi ikon baru kota kendari</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'sebuah', 'masjid', 'di', 'kota', 'baru', 'dekat', 'fort', 'de', 'kock', 'bukittinggi', 'dalam', 'sebuah', 'kartu', 'pos', 'tahun', 'tidak', 'diketahui']</t>
+          <t>['rt', 'jembatan', 'sepanjang', 'kilometer', 'kini', 'terentang', 'di', 'atas', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'dan', 'menjadi', 'ikon', 'baru', 'kota', 'kendari']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'jembatan', 'sepanjang', 'kilometer', 'kini', 'terentang', 'di', 'atas', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'dan', 'menjadi', 'ikon', 'baru', 'kota', 'kendari']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['masjid', 'kota', 'fort', 'de', 'kock', 'bukittinggi', 'kartu', 'pos']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['masjid', 'kota', 'fort', 'de', 'kock', 'bukittinggi', 'kartu', 'pos']</t>
+          <t>['jembatan', 'kilometer', 'terentang', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'ikon', 'kota', 'kendari']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['jembatan', 'kilometer', 'terentang', 'teluk', 'kendari', 'sulawesi', 'tenggara', 'ikon', 'kota', 'kendari']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17216</v>
+        <v>27985</v>
       </c>
       <c r="C74" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt bagir mizan group berada di ambang pergantian generasi saya sdg mencari orang muda berkarakter adaptif utk dipersiapkan menjad</t>
+          <t>rt santri sehat negara kuat selamat hari santri nasional oktober</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'mizan', 'group', 'berada', 'di', 'ambang', 'pergantian', 'generasi', 'saya', 'sdg', 'mencari', 'orang', 'muda', 'berkarakter', 'adaptif', 'utk', 'dipersiapkan', 'menjad']</t>
+          <t>['rt', 'santri', 'sehat', 'negara', 'kuat', 'selamat', 'hari', 'santri', 'nasional', 'oktober']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'santri', 'sehat', 'negara', 'kuat', 'selamat', 'hari', 'santri', 'nasional', 'oktober']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['bagir', 'mizan', 'group', 'ambang', 'pergantian', 'generasi', 'sdg', 'mencari', 'orang', 'muda', 'berkarakter', 'adaptif', 'dipersiapkan', 'menjad']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['bagir', 'mizan', 'group', 'ambang', 'ganti', 'generasi', 'sdg', 'cari', 'orang', 'muda', 'karakter', 'adaptif', 'siap', 'menjad']</t>
+          <t>['santri', 'sehat', 'negara', 'kuat', 'selamat', 'santri', 'nasional', 'oktober']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['santri', 'sehat', 'negara', 'kuat', 'selamat', 'santri', 'nasional', 'oktober']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17217</v>
+        <v>27986</v>
       </c>
       <c r="C75" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya bapak la ode junaidin arif ketua</t>
+          <t>rt selamat hari santri nasional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'bapak', 'la', 'ode', 'junaidin', 'arif', 'ketua']</t>
+          <t>['rt', 'selamat', 'hari', 'santri', 'nasional']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'hari', 'santri', 'nasional']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'la', 'ode', 'junaidin', 'arif', 'ketua']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'la', 'ode', 'junaidin', 'arif', 'ketua']</t>
+          <t>['selamat', 'santri', 'nasional']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['selamat', 'santri', 'nasional']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17218</v>
+        <v>27987</v>
       </c>
       <c r="C76" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt bagir makin mementingkan diri makin menyengsarakan diri makin mengorbankan diri makin membahagiakan diri makin merendah</t>
+          <t>rt selamat hari santri nasional bersama santri indonesia mandiri bersama santri damailah negri dana mustadhafin</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'makin', 'mementingkan', 'diri', 'makin', 'menyengsarakan', 'diri', 'makin', 'mengorbankan', 'diri', 'makin', 'membahagiakan', 'diri', 'makin', 'merendah']</t>
+          <t>['rt', 'selamat', 'hari', 'santri', 'nasional', 'bersama', 'santri', 'indonesia', 'mandiri', 'bersama', 'santri', 'damailah', 'negri', 'dana', 'mustadhafin']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'hari', 'santri', 'nasional', 'bersama', 'santri', 'indonesia', 'mandiri', 'bersama', 'santri', 'damailah', 'negeri', 'dana', 'mustadhafin']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['bagir', 'mementingkan', 'menyengsarakan', 'mengorbankan', 'membahagiakan', 'merendah']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['bagir', 'penting', 'sengsara', 'korban', 'bahagia', 'rendah']</t>
+          <t>['selamat', 'santri', 'nasional', 'santri', 'indonesia', 'mandiri', 'santri', 'damailah', 'negeri', 'dana', 'mustadhafin']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['selamat', 'santri', 'nasional', 'santri', 'indonesia', 'mandiri', 'santri', 'damai', 'negeri', 'dana', 'mustadhafin']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17219</v>
+        <v>27988</v>
       </c>
       <c r="C77" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt meneguhkan gerakan keagamaan hadapi pandemi dan masalah negeri tema milad muhammadiyah ke diangkat untuk memperteg</t>
+          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya ustadzah wardah binty alwi al had</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'meneguhkan', 'gerakan', 'keagamaan', 'hadapi', 'pandemi', 'dan', 'masalah', 'negeri', 'tema', 'milad', 'muhammadiyah', 'ke', 'diangkat', 'untuk', 'memperteg']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['meneguhkan', 'gerakan', 'keagamaan', 'hadapi', 'pandemi', 'negeri', 'tema', 'milad', 'muhammadiyah', 'diangkat', 'memperteg']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['teguh', 'gera', 'agama', 'hadap', 'pandemi', 'negeri', 'tema', 'milad', 'muhammadiyah', 'angkat', 'memperteg']</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'ustadzah', 'wardah', 'binty', 'alwi', 'al', 'had']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17220</v>
+        <v>27989</v>
       </c>
       <c r="C78" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt bagir skrg ini org sulit berpikir kecuali dlm kerangka hitam putih mengritik dianggap membenci jika mendukung ndak boleh ngr</t>
+          <t>rt khutbah terakhir rasulullah di hadapan para sahabat</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'skrg', 'ini', 'org', 'sulit', 'berpikir', 'kecuali', 'dlm', 'kerangka', 'hitam', 'putih', 'mengritik', 'dianggap', 'membenci', 'jika', 'mendukung', 'ndak', 'boleh', 'ngr']</t>
+          <t>['rt', 'khutbah', 'terakhir', 'rasulullah', 'di', 'hadapan', 'para', 'sahabat']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'khotbah', 'terakhir', 'rasulullah', 'di', 'hadapan', 'para', 'sahabat']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['bagir', 'skrg', 'org', 'sulit', 'berpikir', 'kecuali', 'dlm', 'kerangka', 'hitam', 'putih', 'mengritik', 'dianggap', 'membenci', 'mendukung', 'ndak', 'ngr']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['bagir', 'skrg', 'org', 'sulit', 'pikir', 'kecuali', 'dlm', 'kerangka', 'hitam', 'putih', 'mengritik', 'anggap', 'benci', 'dukung', 'ndak', 'ngr']</t>
+          <t>['khotbah', 'rasulullah', 'hadapan', 'sahabat']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['khotbah', 'rasulullah', 'hadap', 'sahabat']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17221</v>
+        <v>27990</v>
       </c>
       <c r="C79" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt roekmini kardinah dan kartini sedang membatik sekitar tahun selamat hari batik nasional</t>
+          <t>rt sebuah masjid di kota baru dekat fort de kock bukittinggi dalam sebuah kartu pos tahun tidak diketahui</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'roekmini', 'kardinah', 'dan', 'kartini', 'sedang', 'membatik', 'sekitar', 'tahun', 'selamat', 'hari', 'batik', 'nasional']</t>
+          <t>['rt', 'sebuah', 'masjid', 'di', 'kota', 'baru', 'dekat', 'fort', 'de', 'kock', 'bukittinggi', 'dalam', 'sebuah', 'kartu', 'pos', 'tahun', 'tidak', 'diketahui']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'sebuah', 'masjid', 'di', 'kota', 'baru', 'dekat', 'fort', 'deh', 'kock', 'bukittinggi', 'dalam', 'sebuah', 'kartu', 'pos', 'tahun', 'tidak', 'diketahui']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['roekmini', 'kardinah', 'kartini', 'membatik', 'selamat', 'batik', 'nasional']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['roekmini', 'kardinah', 'kartini', 'batik', 'selamat', 'batik', 'nasional']</t>
+          <t>['masjid', 'kota', 'fort', 'deh', 'kock', 'bukittinggi', 'kartu', 'pos']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['masjid', 'kota', 'fort', 'deh', 'kock', 'bukittinggi', 'kartu', 'pos']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17222</v>
+        <v>27991</v>
       </c>
       <c r="C80" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt prof nazaruddin umar umat bukan masanya lagi sibuk pertentangkan perbedaan</t>
+          <t>rt bagir mizan group berada di ambang pergantian generasi saya sdg mencari orang muda berkarakter adaptif utk dipersiapkan menjad</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'prof', 'nazaruddin', 'umar', 'umat', 'bukan', 'masanya', 'lagi', 'sibuk', 'pertentangkan', 'perbedaan']</t>
+          <t>['rt', 'bagir', 'mizan', 'group', 'berada', 'di', 'ambang', 'pergantian', 'generasi', 'saya', 'sdg', 'mencari', 'orang', 'muda', 'berkarakter', 'adaptif', 'utk', 'dipersiapkan', 'menjad']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'mizan', 'grup', 'berada', 'di', 'ambang', 'pergantian', 'generasi', 'saya', 'sedang', 'mencari', 'orang', 'muda', 'berkarakter', 'adaptif', 'untuk', 'dipersiapkan', 'menjad']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['prof', 'nazaruddin', 'umar', 'umat', 'masanya', 'sibuk', 'pertentangkan', 'perbedaan']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['prof', 'nazaruddin', 'umar', 'umat', 'masa', 'sibuk', 'tentang', 'beda']</t>
+          <t>['bagir', 'mizan', 'grup', 'ambang', 'pergantian', 'generasi', 'mencari', 'orang', 'muda', 'berkarakter', 'adaptif', 'dipersiapkan', 'menjad']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['bagir', 'mizan', 'grup', 'ambang', 'ganti', 'generasi', 'cari', 'orang', 'muda', 'karakter', 'adaptif', 'siap', 'menjad']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17223</v>
+        <v>27992</v>
       </c>
       <c r="C81" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt keluarga besar ahlulbait indonesia turut menghaturkan duka yang mendalam atas wafatnya bapak la ode junaidin arif ketua</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'bapak', 'la', 'ode', 'junaidin', 'arif', 'ketua']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'ahlulbait', 'indonesia', 'turut', 'menghaturkan', 'duka', 'yang', 'mendalam', 'atas', 'wafatnya', 'bapak', 'lah', 'ode', 'junaidin', 'arif', 'ketua']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'menghaturkan', 'duka', 'mendalam', 'wafatnya', 'ode', 'junaidin', 'arif', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ahlulbait', 'indonesia', 'hatur', 'duka', 'dalam', 'wafat', 'ode', 'junaidin', 'arif', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17224</v>
+        <v>27993</v>
       </c>
       <c r="C82" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt kenapa udara waktu subuh begitu segar nan sejuk karena belum bercampur dengan nafas orang orang munafik yang belum ban</t>
+          <t>rt bagir makin mementingkan diri makin menyengsarakan diri makin mengorbankan diri makin membahagiakan diri makin merendah</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'kenapa', 'udara', 'waktu', 'subuh', 'begitu', 'segar', 'nan', 'sejuk', 'karena', 'belum', 'bercampur', 'dengan', 'nafas', 'orang', 'orang', 'munafik', 'yang', 'belum', 'ban']</t>
+          <t>['rt', 'bagir', 'makin', 'mementingkan', 'diri', 'makin', 'menyengsarakan', 'diri', 'makin', 'mengorbankan', 'diri', 'makin', 'membahagiakan', 'diri', 'makin', 'merendah']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'makin', 'mementingkan', 'diri', 'makin', 'menyengsarakan', 'diri', 'makin', 'mengorbankan', 'diri', 'makin', 'membahagiakan', 'diri', 'makin', 'merendah']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['udara', 'subuh', 'segar', 'sejuk', 'bercampur', 'nafas', 'orang', 'orang', 'munafik', 'ban']</t>
+          <t>&lt;FreqDist with 9 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['udara', 'subuh', 'segar', 'sejuk', 'campur', 'nafas', 'orang', 'orang', 'munafik', 'ban']</t>
+          <t>['bagir', 'mementingkan', 'menyengsarakan', 'mengorbankan', 'membahagiakan', 'merendah']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['bagir', 'penting', 'sengsara', 'korban', 'bahagia', 'rendah']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17225</v>
+        <v>27994</v>
       </c>
       <c r="C83" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt pernyataan sikap abi tentang dinamika penyintas sampang di rusunawa sidoarjo</t>
+          <t>rt meneguhkan gerakan keagamaan hadapi pandemi dan masalah negeri tema milad muhammadiyah ke diangkat untuk memperteg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'pernyataan', 'sikap', 'abi', 'tentang', 'dinamika', 'penyintas', 'sampang', 'di', 'rusunawa', 'sidoarjo']</t>
+          <t>['rt', 'meneguhkan', 'gerakan', 'keagamaan', 'hadapi', 'pandemi', 'dan', 'masalah', 'negeri', 'tema', 'milad', 'muhammadiyah', 'ke', 'diangkat', 'untuk', 'memperteg']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'meneguhkan', 'gerakan', 'keagamaan', 'hadapi', 'pandemi', 'dan', 'masalah', 'negeri', 'tema', 'milad', 'muhammadiyah', 'ke', 'diangkat', 'untuk', 'memperteg']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['pernyataan', 'sikap', 'abi', 'dinamika', 'penyintas', 'sampang', 'rusunawa', 'sidoarjo']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['nyata', 'sikap', 'abi', 'dinamika', 'sintas', 'sampang', 'rusunawa', 'sidoarjo']</t>
+          <t>['meneguhkan', 'gerakan', 'keagamaan', 'hadapi', 'pandemi', 'negeri', 'tema', 'milad', 'muhammadiyah', 'diangkat', 'memperteg']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['teguh', 'gera', 'agama', 'hadap', 'pandemi', 'negeri', 'tema', 'milad', 'muhammadiyah', 'angkat', 'memperteg']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17226</v>
+        <v>27995</v>
       </c>
       <c r="C84" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt azyumardi saya golput pilkada des sebagai ungkapan solidaritas kemanusiaan bagi mereka yang wafat disebabkan wabah korona</t>
+          <t>rt bagir skrg ini org sulit berpikir kecuali dlm kerangka hitam putih mengritik dianggap membenci jika mendukung ndak boleh ngr</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'azyumardi', 'saya', 'golput', 'pilkada', 'des', 'sebagai', 'ungkapan', 'solidaritas', 'kemanusiaan', 'bagi', 'mereka', 'yang', 'wafat', 'disebabkan', 'wabah', 'korona']</t>
+          <t>['rt', 'bagir', 'skrg', 'ini', 'org', 'sulit', 'berpikir', 'kecuali', 'dlm', 'kerangka', 'hitam', 'putih', 'mengritik', 'dianggap', 'membenci', 'jika', 'mendukung', 'ndak', 'boleh', 'ngr']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'sekarang', 'ini', 'orang', 'sulit', 'berpikir', 'kecuali', 'dalam', 'kerangka', 'hitam', 'putih', 'mengritik', 'dianggap', 'membenci', 'jika', 'mendukung', 'tidak', 'boleh', 'gede, rasa']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['azyumardi', 'golput', 'pilkada', 'des', 'ungkapan', 'solidaritas', 'kemanusiaan', 'wafat', 'disebabkan', 'wabah', 'korona']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['azyumardi', 'golput', 'pilkada', 'des', 'ungkap', 'solidaritas', 'manusia', 'wafat', 'sebab', 'wabah', 'korona']</t>
+          <t>['bagir', 'orang', 'sulit', 'berpikir', 'kecuali', 'kerangka', 'hitam', 'putih', 'mengritik', 'dianggap', 'membenci', 'mendukung', 'gede, rasa']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['bagir', 'orang', 'sulit', 'pikir', 'kecuali', 'kerangka', 'hitam', 'putih', 'mengritik', 'anggap', 'benci', 'dukung', 'gede rasa']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17227</v>
+        <v>27996</v>
       </c>
       <c r="C85" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt kembali dana mustadhafin berkhidmat melalui layanan penyemprotan desinfektan gratis kegiatan dilaksanakan di perum citay</t>
+          <t>rt roekmini kardinah dan kartini sedang membatik sekitar tahun selamat hari batik nasional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'kembali', 'dana', 'mustadhafin', 'berkhidmat', 'melalui', 'layanan', 'penyemprotan', 'desinfektan', 'gratis', 'kegiatan', 'dilaksanakan', 'di', 'perum', 'citay']</t>
+          <t>['rt', 'roekmini', 'kardinah', 'dan', 'kartini', 'sedang', 'membatik', 'sekitar', 'tahun', 'selamat', 'hari', 'batik', 'nasional']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'roekmini', 'kardinah', 'dan', 'kartini', 'sedang', 'membatik', 'sekitar', 'tahun', 'selamat', 'hari', 'batik', 'nasional']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['dana', 'mustadhafin', 'berkhidmat', 'layanan', 'penyemprotan', 'desinfektan', 'gratis', 'kegiatan', 'dilaksanakan', 'perum', 'citay']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['dana', 'mustadhafin', 'khidmat', 'layan', 'semprot', 'desinfektan', 'gratis', 'giat', 'laksana', 'perum', 'citay']</t>
+          <t>['roekmini', 'kardinah', 'kartini', 'membatik', 'selamat', 'batik', 'nasional']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['roekmini', 'kardinah', 'kartini', 'batik', 'selamat', 'batik', 'nasional']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17228</v>
+        <v>27997</v>
       </c>
       <c r="C86" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt dari data kami kasus positif di sulsel adalah tanpa gejala atau gejala ringan program wisata duta covid efekt</t>
+          <t>rt prof nazaruddin umar umat bukan masanya lagi sibuk pertentangkan perbedaan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'dari', 'data', 'kami', 'kasus', 'positif', 'di', 'sulsel', 'adalah', 'tanpa', 'gejala', 'atau', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
+          <t>['rt', 'prof', 'nazaruddin', 'umar', 'umat', 'bukan', 'masanya', 'lagi', 'sibuk', 'pertentangkan', 'perbedaan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'prof', 'nazaruddin', 'umar', 'umat', 'bukan', 'masanya', 'lagi', 'sibuk', 'pertentangkan', 'perbedaan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['data', 'positif', 'sulsel', 'gejala', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['data', 'positif', 'sulsel', 'gejala', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
+          <t>['prof', 'nazaruddin', 'umar', 'umat', 'masanya', 'sibuk', 'pertentangkan', 'perbedaan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['prof', 'nazaruddin', 'umar', 'umat', 'masa', 'sibuk', 'tentang', 'beda']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17229</v>
+        <v>27998</v>
       </c>
       <c r="C87" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt berikut adalah daftar rumah sakit rujukan penanggulangan covid di ibu kota</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'berikut', 'adalah', 'daftar', 'rumah', 'sakit', 'rujukan', 'penanggulangan', 'covid', 'di', 'ibu', 'kota']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['daftar', 'rumah', 'sakit', 'rujukan', 'penanggulangan', 'covid', 'kota']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['daftar', 'rumah', 'sakit', 'rujuk', 'tanggulang', 'covid', 'kota']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17230</v>
+        <v>27999</v>
       </c>
       <c r="C88" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt inna lillah wa inna ilaihi rajiun prof malik fajar mantan menko kesra mendiknas menag wantimpres baru saja wafat </t>
+          <t>rt kenapa udara waktu subuh begitu segar nan sejuk karena belum bercampur dengan nafas orang orang munafik yang belum ban</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menko', 'kesra', 'mendiknas', 'menag', 'wantimpres', 'baru', 'saja', 'wafat']</t>
+          <t>['rt', 'kenapa', 'udara', 'waktu', 'subuh', 'begitu', 'segar', 'nan', 'sejuk', 'karena', 'belum', 'bercampur', 'dengan', 'nafas', 'orang', 'orang', 'munafik', 'yang', 'belum', 'ban']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'kenapa', 'udara', 'waktu', 'subuh', 'begitu', 'segar', 'nan', 'sejuk', 'karena', 'belum', 'bercampur', 'dengan', 'nafas', 'orang', 'orang', 'munafik', 'yang', 'belum', 'ban']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menko', 'kesra', 'mendiknas', 'menag', 'wantimpres', 'wafat']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menko', 'kesra', 'mendiknas', 'menag', 'wantimpres', 'wafat']</t>
+          <t>['udara', 'subuh', 'segar', 'sejuk', 'bercampur', 'nafas', 'orang', 'orang', 'munafik', 'ban']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['udara', 'subuh', 'segar', 'sejuk', 'campur', 'nafas', 'orang', 'orang', 'munafik', 'ban']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17231</v>
+        <v>28000</v>
       </c>
       <c r="C89" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt azyumardi alm prof  malik fadjar adalah salah tokoh reformasi yang meminta presiden soeharto mundur dari kekuasaannya sebagai </t>
+          <t>rt pernyataan sikap abi tentang dinamika penyintas sampang di rusunawa sidoarjo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'azyumardi', 'alm', 'prof', 'malik', 'fadjar', 'adalah', 'salah', 'tokoh', 'reformasi', 'yang', 'meminta', 'presiden', 'soeharto', 'mundur', 'dari', 'kekuasaannya', 'sebagai']</t>
+          <t>['rt', 'pernyataan', 'sikap', 'abi', 'tentang', 'dinamika', 'penyintas', 'sampang', 'di', 'rusunawa', 'sidoarjo']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'pernyataan', 'sikap', 'abi', 'tentang', 'dinamika', 'penyintas', 'sampang', 'di', 'rumah, susun, sederhana, sewa', 'sidoarjo']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['azyumardi', 'alm', 'prof', 'malik', 'fadjar', 'salah', 'tokoh', 'reformasi', 'presiden', 'soeharto', 'mundur', 'kekuasaannya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['azyumardi', 'alm', 'prof', 'malik', 'fadjar', 'salah', 'tokoh', 'reformasi', 'presiden', 'soeharto', 'mundur', 'kuasa']</t>
+          <t>['pernyataan', 'sikap', 'abi', 'dinamika', 'penyintas', 'sampang', 'rumah, susun, sederhana, sewa', 'sidoarjo']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['nyata', 'sikap', 'abi', 'dinamika', 'sintas', 'sampang', 'rumah susun sederhana sewa', 'sidoarjo']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17232</v>
+        <v>28001</v>
       </c>
       <c r="C90" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt iran russia discuss joint production of covid vaccine</t>
+          <t>rt azyumardi saya golput pilkada des sebagai ungkapan solidaritas kemanusiaan bagi mereka yang wafat disebabkan wabah korona</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'iran', 'russia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
+          <t>['rt', 'azyumardi', 'saya', 'golput', 'pilkada', 'des', 'sebagai', 'ungkapan', 'solidaritas', 'kemanusiaan', 'bagi', 'mereka', 'yang', 'wafat', 'disebabkan', 'wabah', 'korona']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'saya', 'golput', 'pilihan, kepala, daerah', 'desember', 'sebagai', 'ungkapan', 'solidaritas', 'kemanusiaan', 'bagi', 'mereka', 'yang', 'wafat', 'disebabkan', 'wabah', 'korona']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['iran', 'russia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['iran', 'russia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
+          <t>['azyumardi', 'golput', 'pilihan, kepala, daerah', 'desember', 'ungkapan', 'solidaritas', 'kemanusiaan', 'wafat', 'disebabkan', 'wabah', 'korona']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'golput', 'pilih kepala daerah', 'desember', 'ungkap', 'solidaritas', 'manusia', 'wafat', 'sebab', 'wabah', 'korona']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17233</v>
+        <v>28002</v>
       </c>
       <c r="C91" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt dalam rangkaian video kami menanggapi program fakta tv one tentang syiah tanggapan tak hanya menyoal substansi tapi car</t>
+          <t>rt kembali dana mustadhafin berkhidmat melalui layanan penyemprotan desinfektan gratis kegiatan dilaksanakan di perum citay</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'rangkaian', 'video', 'kami', 'menanggapi', 'program', 'fakta', 'tv', 'one', 'tentang', 'syiah', 'tanggapan', 'tak', 'hanya', 'menyoal', 'substansi', 'tapi', 'car']</t>
+          <t>['rt', 'kembali', 'dana', 'mustadhafin', 'berkhidmat', 'melalui', 'layanan', 'penyemprotan', 'desinfektan', 'gratis', 'kegiatan', 'dilaksanakan', 'di', 'perum', 'citay']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'kembali', 'dana', 'mustadhafin', 'berkhidmat', 'melalui', 'layanan', 'penyemprotan', 'desinfektan', 'gratis', 'kegiatan', 'dilaksanakan', 'di', 'perum', 'citay']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['rangkaian', 'video', 'menanggapi', 'program', 'fakta', 'tv', 'one', 'syiah', 'tanggapan', 'menyoal', 'substansi', 'car']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['rangkai', 'video', 'tanggap', 'program', 'fakta', 'tv', 'one', 'syiah', 'tanggap', 'soal', 'substansi', 'car']</t>
+          <t>['dana', 'mustadhafin', 'berkhidmat', 'layanan', 'penyemprotan', 'desinfektan', 'gratis', 'kegiatan', 'dilaksanakan', 'perum', 'citay']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['dana', 'mustadhafin', 'khidmat', 'layan', 'semprot', 'desinfektan', 'gratis', 'giat', 'laksana', 'perum', 'citay']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17234</v>
+        <v>28003</v>
       </c>
       <c r="C92" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt jaga kesehatan patuhi protokol selalu berdoa kepada allah</t>
+          <t>rt dari data kami kasus positif di sulsel adalah tanpa gejala atau gejala ringan program wisata duta covid efekt</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'jaga', 'kesehatan', 'patuhi', 'protokol', 'selalu', 'berdoa', 'kepada', 'allah']</t>
+          <t>['rt', 'dari', 'data', 'kami', 'kasus', 'positif', 'di', 'sulsel', 'adalah', 'tanpa', 'gejala', 'atau', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'dari', 'data', 'kami', 'kasus', 'positif', 'di', 'sulawesi, selatan', 'adalah', 'tanpa', 'gejala', 'atau', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['jaga', 'kesehatan', 'patuhi', 'protokol', 'berdoa', 'allah']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['jaga', 'sehat', 'patuh', 'protokol', 'doa', 'allah']</t>
+          <t>['data', 'positif', 'sulawesi, selatan', 'gejala', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['data', 'positif', 'sulawesi selatan', 'gejala', 'gejala', 'ringan', 'program', 'wisata', 'duta', 'covid', 'efekt']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17235</v>
+        <v>28004</v>
       </c>
       <c r="C93" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt membaca kisah anak menantu cuvu dan buyut nabi muhammad saw ini sangat menyedihkan saya bukan syiah tp karena saya</t>
+          <t>rt berikut adalah daftar rumah sakit rujukan penanggulangan covid di ibu kota</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'membaca', 'kisah', 'anak', 'menantu', 'cuvu', 'dan', 'buyut', 'nabi', 'muhammad', 'saw', 'ini', 'sangat', 'menyedihkan', 'saya', 'bukan', 'syiah', 'tp', 'karena', 'saya']</t>
+          <t>['rt', 'berikut', 'adalah', 'daftar', 'rumah', 'sakit', 'rujukan', 'penanggulangan', 'covid', 'di', 'ibu', 'kota']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'berikut', 'adalah', 'daftar', 'rumah', 'sakit', 'rujukan', 'penanggulangan', 'covid', 'di', 'ibu', 'kota']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['membaca', 'kisah', 'anak', 'menantu', 'cuvu', 'buyut', 'nabi', 'muhammad', 'saw', 'menyedihkan', 'syiah', 'tp']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['baca', 'kisah', 'anak', 'menantu', 'cuvu', 'buyut', 'nabi', 'muhammad', 'saw', 'sedih', 'syiah', 'tp']</t>
+          <t>['daftar', 'rumah', 'sakit', 'rujukan', 'penanggulangan', 'covid', 'kota']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['daftar', 'rumah', 'sakit', 'rujuk', 'tanggulang', 'covid', 'kota']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17236</v>
+        <v>28005</v>
       </c>
       <c r="C94" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt tapi beban sejarah itu harus kutanggung karena kakekku pernah berpesan padaku sebagai orang islam kamu harus ikut</t>
+          <t xml:space="preserve">rt inna lillah wa inna ilaihi rajiun prof malik fajar mantan menko kesra mendiknas menag wantimpres baru saja wafat </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'tapi', 'beban', 'sejarah', 'itu', 'harus', 'kutanggung', 'karena', 'kakekku', 'pernah', 'berpesan', 'padaku', 'sebagai', 'orang', 'islam', 'kamu', 'harus', 'ikut']</t>
+          <t>['rt', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menko', 'kesra', 'mendiknas', 'menag', 'wantimpres', 'baru', 'saja', 'wafat']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menteri, perekonomian', 'kesra', 'mendiknas', 'menteri, agama', 'dewan, pertimbangan, presiden', 'baru', 'saja', 'wafat']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['beban', 'sejarah', 'kutanggung', 'kakekku', 'berpesan', 'padaku', 'orang', 'islam']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['beban', 'sejarah', 'tanggung', 'kakek', 'pesan', 'pada', 'orang', 'islam']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menteri, perekonomian', 'kesra', 'mendiknas', 'menteri, agama', 'dewan, pertimbangan, presiden', 'wafat']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'prof', 'malik', 'fajar', 'mantan', 'menteri ekonomi', 'kesra', 'mendiknas', 'menteri agama', 'dewan timbang presiden', 'wafat']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17237</v>
+        <v>28006</v>
       </c>
       <c r="C95" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt jadi muslim indonesia amp jadi orang indonesia yg muslim itu berat bukanbukan gara orang lain tp krn kita harus memb</t>
+          <t xml:space="preserve">rt azyumardi alm prof  malik fadjar adalah salah tokoh reformasi yang meminta presiden soeharto mundur dari kekuasaannya sebagai </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'jadi', 'muslim', 'indonesia', 'amp', 'jadi', 'orang', 'indonesia', 'yg', 'muslim', 'itu', 'berat', 'bukanbukan', 'gara', 'orang', 'lain', 'tp', 'krn', 'kita', 'harus', 'memb']</t>
+          <t>['rt', 'azyumardi', 'alm', 'prof', 'malik', 'fadjar', 'adalah', 'salah', 'tokoh', 'reformasi', 'yang', 'meminta', 'presiden', 'soeharto', 'mundur', 'dari', 'kekuasaannya', 'sebagai']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'almarhum', 'prof', 'malik', 'fadjar', 'adalah', 'salah', 'tokoh', 'reformasi', 'yang', 'meminta', 'presiden', 'soeharto', 'mundur', 'dari', 'kekuasaannya', 'sebagai']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['muslim', 'indonesia', 'orang', 'indonesia', 'muslim', 'berat', 'bukanbukan', 'gara', 'orang', 'tp', 'memb']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['muslim', 'indonesia', 'orang', 'indonesia', 'muslim', 'berat', 'bukanbukan', 'gara', 'orang', 'tp', 'memb']</t>
+          <t>['azyumardi', 'almarhum', 'prof', 'malik', 'fadjar', 'salah', 'tokoh', 'reformasi', 'presiden', 'soeharto', 'mundur', 'kekuasaannya']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'almarhum', 'prof', 'malik', 'fadjar', 'salah', 'tokoh', 'reformasi', 'presiden', 'soeharto', 'mundur', 'kuasa']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17238</v>
+        <v>28007</v>
       </c>
       <c r="C96" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt saya merasakan aib sbg orang indonesia ada aib krn proklamator kemerdekaan negaraku tak mati ditahan penjajah tp </t>
+          <t>rt iran russia discuss joint production of covid vaccine</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'merasakan', 'aib', 'sbg', 'orang', 'indonesia', 'ada', 'aib', 'krn', 'proklamator', 'kemerdekaan', 'negaraku', 'tak', 'mati', 'ditahan', 'penjajah', 'tp']</t>
+          <t>['rt', 'iran', 'russia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'iran', 'rusia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['merasakan', 'aib', 'sbg', 'orang', 'indonesia', 'aib', 'proklamator', 'kemerdekaan', 'negaraku', 'mati', 'ditahan', 'penjajah', 'tp']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['rasa', 'aib', 'sbg', 'orang', 'indonesia', 'aib', 'proklamator', 'merdeka', 'negara', 'mati', 'tahan', 'jajah', 'tp']</t>
+          <t>['iran', 'rusia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['iran', 'rusia', 'discuss', 'joint', 'production', 'of', 'covid', 'vaccine']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17239</v>
+        <v>28008</v>
       </c>
       <c r="C97" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt tak harus seorang syiah  melihat kejadian itu sbg tragedi ironi amp bahkan aib saya ngaji sejak kecil tp tak pernah</t>
+          <t>rt dalam rangkaian video kami menanggapi program fakta tv one tentang syiah tanggapan tak hanya menyoal substansi tapi car</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'tak', 'harus', 'seorang', 'syiah', 'melihat', 'kejadian', 'itu', 'sbg', 'tragedi', 'ironi', 'amp', 'bahkan', 'aib', 'saya', 'ngaji', 'sejak', 'kecil', 'tp', 'tak', 'pernah']</t>
+          <t>['rt', 'dalam', 'rangkaian', 'video', 'kami', 'menanggapi', 'program', 'fakta', 'tv', 'one', 'tentang', 'syiah', 'tanggapan', 'tak', 'hanya', 'menyoal', 'substansi', 'tapi', 'car']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'rangkaian', 'video', 'kami', 'menanggapi', 'program', 'fakta', 'televisi', 'one', 'tentang', 'syiah', 'tanggapan', 'tak', 'hanya', 'menyoal', 'substansi', 'tapi', 'car']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['syiah', 'kejadian', 'sbg', 'tragedi', 'ironi', 'aib', 'ngaji', 'tp']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['syiah', 'jadi', 'sbg', 'tragedi', 'ironi', 'aib', 'ngaji', 'tp']</t>
+          <t>['rangkaian', 'video', 'menanggapi', 'program', 'fakta', 'televisi', 'one', 'syiah', 'tanggapan', 'menyoal', 'substansi', 'car']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['rangkai', 'video', 'tanggap', 'program', 'fakta', 'televisi', 'one', 'syiah', 'tanggap', 'soal', 'substansi', 'car']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17240</v>
+        <v>28009</v>
       </c>
       <c r="C98" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt ya keluarga nabi menantu cucu amp buyut nabi muhammad saw nyaris habis semua ini ironi besar dan tragis</t>
+          <t>rt jaga kesehatan patuhi protokol selalu berdoa kepada allah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'ya', 'keluarga', 'nabi', 'menantu', 'cucu', 'amp', 'buyut', 'nabi', 'muhammad', 'saw', 'nyaris', 'habis', 'semua', 'ini', 'ironi', 'besar', 'dan', 'tragis']</t>
+          <t>['rt', 'jaga', 'kesehatan', 'patuhi', 'protokol', 'selalu', 'berdoa', 'kepada', 'allah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jaga', 'kesehatan', 'patuhi', 'protokol', 'selalu', 'berdoa', 'kepada', 'allah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['keluarga', 'nabi', 'menantu', 'cucu', 'buyut', 'nabi', 'muhammad', 'saw', 'habis', 'ironi', 'tragis']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['keluarga', 'nabi', 'menantu', 'cucu', 'buyut', 'nabi', 'muhammad', 'saw', 'habis', 'ironi', 'tragis']</t>
+          <t>['jaga', 'kesehatan', 'patuhi', 'protokol', 'berdoa', 'allah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['jaga', 'sehat', 'patuh', 'protokol', 'doa', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17241</v>
+        <v>28010</v>
       </c>
       <c r="C99" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt dirgahayu republik indonesia</t>
+          <t>rt membaca kisah anak menantu cuvu dan buyut nabi muhammad saw ini sangat menyedihkan saya bukan syiah tp karena saya</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'dirgahayu', 'republik', 'indonesia']</t>
+          <t>['rt', 'membaca', 'kisah', 'anak', 'menantu', 'cuvu', 'dan', 'buyut', 'nabi', 'muhammad', 'saw', 'ini', 'sangat', 'menyedihkan', 'saya', 'bukan', 'syiah', 'tp', 'karena', 'saya']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'membaca', 'kisah', 'anak', 'menantu', 'cuvu', 'dan', 'buyut', 'nabi', 'muhammad', 'saw', 'ini', 'sangat', 'menyedihkan', 'saya', 'bukan', 'syiah', 'tetapi', 'karena', 'saya']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia']</t>
+          <t>['membaca', 'kisah', 'anak', 'menantu', 'cuvu', 'buyut', 'nabi', 'muhammad', 'saw', 'menyedihkan', 'syiah']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['baca', 'kisah', 'anak', 'menantu', 'cuvu', 'buyut', 'nabi', 'muhammad', 'saw', 'sedih', 'syiah']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17242</v>
+        <v>28011</v>
       </c>
       <c r="C100" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dirgahayu republik indonesia yang ke tahun dana mustadhafin </t>
+          <t>rt tapi beban sejarah itu harus kutanggung karena kakekku pernah berpesan padaku sebagai orang islam kamu harus ikut</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'dirgahayu', 'republik', 'indonesia', 'yang', 'ke', 'tahun', 'dana', 'mustadhafin']</t>
+          <t>['rt', 'tapi', 'beban', 'sejarah', 'itu', 'harus', 'kutanggung', 'karena', 'kakekku', 'pernah', 'berpesan', 'padaku', 'sebagai', 'orang', 'islam', 'kamu', 'harus', 'ikut']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'tapi', 'beban', 'sejarah', 'itu', 'harus', 'kutanggung', 'karena', 'kakekku', 'pernah', 'berpesan', 'padaku', 'sebagai', 'orang', 'islam', 'kamu', 'harus', 'ikut']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'dana', 'mustadhafin']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'dana', 'mustadhafin']</t>
+          <t>['beban', 'sejarah', 'kutanggung', 'kakekku', 'berpesan', 'padaku', 'orang', 'islam']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['beban', 'sejarah', 'tanggung', 'kakek', 'pesan', 'pada', 'orang', 'islam']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17243</v>
+        <v>28012</v>
       </c>
       <c r="C101" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt negara republik indonesia ini bukanlah milik suatu golongan bukan milik suatu agama bukan milik suatu suku bukan pula</t>
+          <t>rt jadi muslim indonesia amp jadi orang indonesia yg muslim itu berat bukanbukan gara orang lain tp krn kita harus memb</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'negara', 'republik', 'indonesia', 'ini', 'bukanlah', 'milik', 'suatu', 'golongan', 'bukan', 'milik', 'suatu', 'agama', 'bukan', 'milik', 'suatu', 'suku', 'bukan', 'pula']</t>
+          <t>['rt', 'jadi', 'muslim', 'indonesia', 'amp', 'jadi', 'orang', 'indonesia', 'yg', 'muslim', 'itu', 'berat', 'bukanbukan', 'gara', 'orang', 'lain', 'tp', 'krn', 'kita', 'harus', 'memb']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jadi', 'muslim', 'indonesia', 'amp', 'jadi', 'orang', 'indonesia', 'yang', 'muslim', 'itu', 'berat', 'bukan, bukan', 'gara', 'orang', 'lain', 'tetapi', 'karena', 'kita', 'harus', 'memb']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['negara', 'republik', 'indonesia', 'milik', 'golongan', 'milik', 'agama', 'milik', 'suku']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['negara', 'republik', 'indonesia', 'milik', 'golong', 'milik', 'agama', 'milik', 'suku']</t>
+          <t>['muslim', 'indonesia', 'orang', 'indonesia', 'muslim', 'berat', 'bukan, bukan', 'gara', 'orang', 'memb']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['muslim', 'indonesia', 'orang', 'indonesia', 'muslim', 'berat', 'bukan bukan', 'gara', 'orang', 'memb']</t>
         </is>
       </c>
     </row>
